--- a/data/00_metadata/full_finclips_sampling.xlsx
+++ b/data/00_metadata/full_finclips_sampling.xlsx
@@ -25402,6 +25402,23 @@
       <c r="M279">
         <v>40.5</v>
       </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U279">
+        <v>2</v>
+      </c>
+      <c r="V279">
+        <v>0.6331194824961948</v>
+      </c>
+      <c r="W279">
+        <v>2.633119482496195</v>
+      </c>
+      <c r="X279">
+        <v>2.65</v>
+      </c>
       <c r="Y279" t="inlineStr">
         <is>
           <t>202304</t>
@@ -25451,6 +25468,23 @@
       <c r="M280">
         <v>50</v>
       </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U280">
+        <v>3</v>
+      </c>
+      <c r="V280">
+        <v>0.6331194824961948</v>
+      </c>
+      <c r="W280">
+        <v>3.633119482496195</v>
+      </c>
+      <c r="X280">
+        <v>3.65</v>
+      </c>
       <c r="Y280" t="inlineStr">
         <is>
           <t>202304</t>
@@ -25500,6 +25534,23 @@
       <c r="M281">
         <v>48</v>
       </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U281">
+        <v>8</v>
+      </c>
+      <c r="V281">
+        <v>0.6337681380010147</v>
+      </c>
+      <c r="W281">
+        <v>8.633768138001015</v>
+      </c>
+      <c r="X281">
+        <v>8.65</v>
+      </c>
       <c r="Y281" t="inlineStr">
         <is>
           <t>202304</t>
@@ -25549,6 +25600,23 @@
       <c r="M282">
         <v>52.5</v>
       </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U282">
+        <v>5</v>
+      </c>
+      <c r="V282">
+        <v>0.6337681380010147</v>
+      </c>
+      <c r="W282">
+        <v>5.633768138001015</v>
+      </c>
+      <c r="X282">
+        <v>5.65</v>
+      </c>
       <c r="Y282" t="inlineStr">
         <is>
           <t>202304</t>
@@ -25598,6 +25666,23 @@
       <c r="M283">
         <v>44</v>
       </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U283">
+        <v>3</v>
+      </c>
+      <c r="V283">
+        <v>0.634189656265855</v>
+      </c>
+      <c r="W283">
+        <v>3.634189656265855</v>
+      </c>
+      <c r="X283">
+        <v>3.65</v>
+      </c>
       <c r="Y283" t="inlineStr">
         <is>
           <t>202304</t>
@@ -25647,6 +25732,23 @@
       <c r="M284">
         <v>57</v>
       </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U284">
+        <v>5</v>
+      </c>
+      <c r="V284">
+        <v>0.634189656265855</v>
+      </c>
+      <c r="W284">
+        <v>5.634189656265855</v>
+      </c>
+      <c r="X284">
+        <v>5.65</v>
+      </c>
       <c r="Y284" t="inlineStr">
         <is>
           <t>202304</t>
@@ -25696,6 +25798,23 @@
       <c r="M285">
         <v>53</v>
       </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U285">
+        <v>3</v>
+      </c>
+      <c r="V285">
+        <v>0.634189656265855</v>
+      </c>
+      <c r="W285">
+        <v>3.634189656265855</v>
+      </c>
+      <c r="X285">
+        <v>3.65</v>
+      </c>
       <c r="Y285" t="inlineStr">
         <is>
           <t>202304</t>
@@ -25745,6 +25864,23 @@
       <c r="M286">
         <v>46</v>
       </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U286">
+        <v>3</v>
+      </c>
+      <c r="V286">
+        <v>0.634189656265855</v>
+      </c>
+      <c r="W286">
+        <v>3.634189656265855</v>
+      </c>
+      <c r="X286">
+        <v>3.65</v>
+      </c>
       <c r="Y286" t="inlineStr">
         <is>
           <t>202304</t>
@@ -25794,6 +25930,23 @@
       <c r="M287">
         <v>51.5</v>
       </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U287">
+        <v>3</v>
+      </c>
+      <c r="V287">
+        <v>0.6344560819381024</v>
+      </c>
+      <c r="W287">
+        <v>3.634456081938103</v>
+      </c>
+      <c r="X287">
+        <v>3.65</v>
+      </c>
       <c r="Y287" t="inlineStr">
         <is>
           <t>202304</t>
@@ -25843,6 +25996,23 @@
       <c r="M288">
         <v>47</v>
       </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U288">
+        <v>3</v>
+      </c>
+      <c r="V288">
+        <v>0.6344560819381024</v>
+      </c>
+      <c r="W288">
+        <v>3.634456081938103</v>
+      </c>
+      <c r="X288">
+        <v>3.65</v>
+      </c>
       <c r="Y288" t="inlineStr">
         <is>
           <t>202304</t>
@@ -25892,6 +26062,23 @@
       <c r="M289">
         <v>42.5</v>
       </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U289">
+        <v>2</v>
+      </c>
+      <c r="V289">
+        <v>0.6344560819381024</v>
+      </c>
+      <c r="W289">
+        <v>2.634456081938103</v>
+      </c>
+      <c r="X289">
+        <v>2.65</v>
+      </c>
       <c r="Y289" t="inlineStr">
         <is>
           <t>202304</t>
@@ -25941,6 +26128,23 @@
       <c r="M290">
         <v>41.5</v>
       </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U290">
+        <v>2</v>
+      </c>
+      <c r="V290">
+        <v>0.6346221461187215</v>
+      </c>
+      <c r="W290">
+        <v>2.634622146118721</v>
+      </c>
+      <c r="X290">
+        <v>2.65</v>
+      </c>
       <c r="Y290" t="inlineStr">
         <is>
           <t>202304</t>
@@ -25990,6 +26194,23 @@
       <c r="M291">
         <v>46</v>
       </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U291">
+        <v>2</v>
+      </c>
+      <c r="V291">
+        <v>0.6346221461187215</v>
+      </c>
+      <c r="W291">
+        <v>2.634622146118721</v>
+      </c>
+      <c r="X291">
+        <v>2.65</v>
+      </c>
       <c r="Y291" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26039,6 +26260,23 @@
       <c r="M292">
         <v>51</v>
       </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U292">
+        <v>6</v>
+      </c>
+      <c r="V292">
+        <v>0.6346221461187215</v>
+      </c>
+      <c r="W292">
+        <v>6.634622146118722</v>
+      </c>
+      <c r="X292">
+        <v>6.65</v>
+      </c>
       <c r="Y292" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26088,6 +26326,23 @@
       <c r="M293">
         <v>40.5</v>
       </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U293">
+        <v>2</v>
+      </c>
+      <c r="V293">
+        <v>0.6348702435312024</v>
+      </c>
+      <c r="W293">
+        <v>2.634870243531203</v>
+      </c>
+      <c r="X293">
+        <v>2.65</v>
+      </c>
       <c r="Y293" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26137,6 +26392,23 @@
       <c r="M294">
         <v>45.5</v>
       </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U294">
+        <v>3</v>
+      </c>
+      <c r="V294">
+        <v>0.6348702435312024</v>
+      </c>
+      <c r="W294">
+        <v>3.634870243531203</v>
+      </c>
+      <c r="X294">
+        <v>3.65</v>
+      </c>
       <c r="Y294" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26186,6 +26458,23 @@
       <c r="M295">
         <v>51.5</v>
       </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U295">
+        <v>3</v>
+      </c>
+      <c r="V295">
+        <v>0.6348702435312024</v>
+      </c>
+      <c r="W295">
+        <v>3.634870243531203</v>
+      </c>
+      <c r="X295">
+        <v>3.65</v>
+      </c>
       <c r="Y295" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26235,6 +26524,23 @@
       <c r="M296">
         <v>46</v>
       </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U296">
+        <v>5</v>
+      </c>
+      <c r="V296">
+        <v>0.6372040525114155</v>
+      </c>
+      <c r="W296">
+        <v>5.637204052511415</v>
+      </c>
+      <c r="X296">
+        <v>5.65</v>
+      </c>
       <c r="Y296" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26284,6 +26590,23 @@
       <c r="M297">
         <v>41.5</v>
       </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U297">
+        <v>3</v>
+      </c>
+      <c r="V297">
+        <v>0.6372040525114155</v>
+      </c>
+      <c r="W297">
+        <v>3.637204052511415</v>
+      </c>
+      <c r="X297">
+        <v>3.65</v>
+      </c>
       <c r="Y297" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26333,6 +26656,23 @@
       <c r="M298">
         <v>51</v>
       </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U298">
+        <v>10</v>
+      </c>
+      <c r="V298">
+        <v>0.6458346017250127</v>
+      </c>
+      <c r="W298">
+        <v>10.64583460172501</v>
+      </c>
+      <c r="X298">
+        <v>10.65</v>
+      </c>
       <c r="Y298" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26382,6 +26722,23 @@
       <c r="M299">
         <v>46</v>
       </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U299">
+        <v>7</v>
+      </c>
+      <c r="V299">
+        <v>0.6458346017250127</v>
+      </c>
+      <c r="W299">
+        <v>7.645834601725013</v>
+      </c>
+      <c r="X299">
+        <v>7.65</v>
+      </c>
       <c r="Y299" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26431,6 +26788,23 @@
       <c r="M300">
         <v>42</v>
       </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U300">
+        <v>7</v>
+      </c>
+      <c r="V300">
+        <v>0.6458346017250127</v>
+      </c>
+      <c r="W300">
+        <v>7.645834601725013</v>
+      </c>
+      <c r="X300">
+        <v>7.65</v>
+      </c>
       <c r="Y300" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26480,6 +26854,23 @@
       <c r="M301">
         <v>47.5</v>
       </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U301">
+        <v>3</v>
+      </c>
+      <c r="V301">
+        <v>0.6788867643328259</v>
+      </c>
+      <c r="W301">
+        <v>3.678886764332826</v>
+      </c>
+      <c r="X301">
+        <v>3.65</v>
+      </c>
       <c r="Y301" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26529,6 +26920,23 @@
       <c r="M302">
         <v>68</v>
       </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U302">
+        <v>7</v>
+      </c>
+      <c r="V302">
+        <v>0.6791974251648909</v>
+      </c>
+      <c r="W302">
+        <v>7.679197425164891</v>
+      </c>
+      <c r="X302">
+        <v>7.65</v>
+      </c>
       <c r="Y302" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26578,6 +26986,23 @@
       <c r="M303">
         <v>54.5</v>
       </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U303">
+        <v>3</v>
+      </c>
+      <c r="V303">
+        <v>0.6791974251648909</v>
+      </c>
+      <c r="W303">
+        <v>3.679197425164891</v>
+      </c>
+      <c r="X303">
+        <v>3.65</v>
+      </c>
       <c r="Y303" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26627,6 +27052,23 @@
       <c r="M304">
         <v>45.5</v>
       </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U304">
+        <v>3</v>
+      </c>
+      <c r="V304">
+        <v>0.6791974251648909</v>
+      </c>
+      <c r="W304">
+        <v>3.679197425164891</v>
+      </c>
+      <c r="X304">
+        <v>3.65</v>
+      </c>
       <c r="Y304" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26676,6 +27118,23 @@
       <c r="M305">
         <v>43</v>
       </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U305">
+        <v>2</v>
+      </c>
+      <c r="V305">
+        <v>0.6791974251648909</v>
+      </c>
+      <c r="W305">
+        <v>2.679197425164891</v>
+      </c>
+      <c r="X305">
+        <v>2.65</v>
+      </c>
       <c r="Y305" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26725,6 +27184,23 @@
       <c r="M306">
         <v>50</v>
       </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U306">
+        <v>10</v>
+      </c>
+      <c r="V306">
+        <v>0.6795283802638254</v>
+      </c>
+      <c r="W306">
+        <v>10.67952838026383</v>
+      </c>
+      <c r="X306">
+        <v>10.65</v>
+      </c>
       <c r="Y306" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26774,6 +27250,23 @@
       <c r="M307">
         <v>43</v>
       </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U307">
+        <v>3</v>
+      </c>
+      <c r="V307">
+        <v>0.6801581684424149</v>
+      </c>
+      <c r="W307">
+        <v>3.680158168442415</v>
+      </c>
+      <c r="X307">
+        <v>3.65</v>
+      </c>
       <c r="Y307" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26823,6 +27316,23 @@
       <c r="M308">
         <v>48</v>
       </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U308">
+        <v>3</v>
+      </c>
+      <c r="V308">
+        <v>0.6805285388127854</v>
+      </c>
+      <c r="W308">
+        <v>3.680528538812785</v>
+      </c>
+      <c r="X308">
+        <v>3.65</v>
+      </c>
       <c r="Y308" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26872,6 +27382,23 @@
       <c r="M309">
         <v>50</v>
       </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U309">
+        <v>8</v>
+      </c>
+      <c r="V309">
+        <v>0.6808581938102486</v>
+      </c>
+      <c r="W309">
+        <v>8.680858193810248</v>
+      </c>
+      <c r="X309">
+        <v>8.65</v>
+      </c>
       <c r="Y309" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26921,6 +27448,23 @@
       <c r="M310">
         <v>56</v>
       </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U310">
+        <v>5</v>
+      </c>
+      <c r="V310">
+        <v>0.6812663305428717</v>
+      </c>
+      <c r="W310">
+        <v>5.681266330542872</v>
+      </c>
+      <c r="X310">
+        <v>5.65</v>
+      </c>
       <c r="Y310" t="inlineStr">
         <is>
           <t>202304</t>
@@ -26970,6 +27514,23 @@
       <c r="M311">
         <v>50.5</v>
       </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U311">
+        <v>7</v>
+      </c>
+      <c r="V311">
+        <v>0.6812663305428717</v>
+      </c>
+      <c r="W311">
+        <v>7.681266330542872</v>
+      </c>
+      <c r="X311">
+        <v>7.65</v>
+      </c>
       <c r="Y311" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27019,6 +27580,23 @@
       <c r="M312">
         <v>47</v>
       </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U312">
+        <v>3</v>
+      </c>
+      <c r="V312">
+        <v>0.6812663305428717</v>
+      </c>
+      <c r="W312">
+        <v>3.681266330542872</v>
+      </c>
+      <c r="X312">
+        <v>3.65</v>
+      </c>
       <c r="Y312" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27068,6 +27646,23 @@
       <c r="M313">
         <v>61</v>
       </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U313">
+        <v>9</v>
+      </c>
+      <c r="V313">
+        <v>0.6812663305428717</v>
+      </c>
+      <c r="W313">
+        <v>9.681266330542872</v>
+      </c>
+      <c r="X313">
+        <v>9.65</v>
+      </c>
       <c r="Y313" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27117,6 +27712,23 @@
       <c r="M314">
         <v>42.5</v>
       </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U314">
+        <v>2</v>
+      </c>
+      <c r="V314">
+        <v>0.6812663305428717</v>
+      </c>
+      <c r="W314">
+        <v>2.681266330542872</v>
+      </c>
+      <c r="X314">
+        <v>2.65</v>
+      </c>
       <c r="Y314" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27166,6 +27778,23 @@
       <c r="M315">
         <v>63</v>
       </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U315">
+        <v>8</v>
+      </c>
+      <c r="V315">
+        <v>0.6825154109589041</v>
+      </c>
+      <c r="W315">
+        <v>8.682515410958905</v>
+      </c>
+      <c r="X315">
+        <v>8.65</v>
+      </c>
       <c r="Y315" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27215,6 +27844,23 @@
       <c r="M316">
         <v>56</v>
       </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U316">
+        <v>5</v>
+      </c>
+      <c r="V316">
+        <v>0.6825154109589041</v>
+      </c>
+      <c r="W316">
+        <v>5.682515410958904</v>
+      </c>
+      <c r="X316">
+        <v>5.65</v>
+      </c>
       <c r="Y316" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27264,6 +27910,23 @@
       <c r="M317">
         <v>44</v>
       </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U317">
+        <v>2</v>
+      </c>
+      <c r="V317">
+        <v>0.6825154109589041</v>
+      </c>
+      <c r="W317">
+        <v>2.682515410958904</v>
+      </c>
+      <c r="X317">
+        <v>2.65</v>
+      </c>
       <c r="Y317" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27313,6 +27976,23 @@
       <c r="M318">
         <v>45.5</v>
       </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U318">
+        <v>2</v>
+      </c>
+      <c r="V318">
+        <v>0.6825154109589041</v>
+      </c>
+      <c r="W318">
+        <v>2.682515410958904</v>
+      </c>
+      <c r="X318">
+        <v>2.65</v>
+      </c>
       <c r="Y318" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27362,6 +28042,23 @@
       <c r="M319">
         <v>40.5</v>
       </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U319">
+        <v>2</v>
+      </c>
+      <c r="V319">
+        <v>0.6846134576357179</v>
+      </c>
+      <c r="W319">
+        <v>2.684613457635718</v>
+      </c>
+      <c r="X319">
+        <v>2.65</v>
+      </c>
       <c r="Y319" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27411,6 +28108,23 @@
       <c r="M320">
         <v>51.5</v>
       </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U320">
+        <v>3</v>
+      </c>
+      <c r="V320">
+        <v>0.6867649353120243</v>
+      </c>
+      <c r="W320">
+        <v>3.686764935312024</v>
+      </c>
+      <c r="X320">
+        <v>3.65</v>
+      </c>
       <c r="Y320" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27460,6 +28174,23 @@
       <c r="M321">
         <v>47.5</v>
       </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U321">
+        <v>3</v>
+      </c>
+      <c r="V321">
+        <v>0.6867649353120243</v>
+      </c>
+      <c r="W321">
+        <v>3.686764935312024</v>
+      </c>
+      <c r="X321">
+        <v>3.65</v>
+      </c>
       <c r="Y321" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27509,6 +28240,23 @@
       <c r="M322">
         <v>43.5</v>
       </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U322">
+        <v>3</v>
+      </c>
+      <c r="V322">
+        <v>0.6867649353120243</v>
+      </c>
+      <c r="W322">
+        <v>3.686764935312024</v>
+      </c>
+      <c r="X322">
+        <v>3.65</v>
+      </c>
       <c r="Y322" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27558,6 +28306,23 @@
       <c r="M323">
         <v>57</v>
       </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U323">
+        <v>10</v>
+      </c>
+      <c r="V323">
+        <v>0.6867649353120243</v>
+      </c>
+      <c r="W323">
+        <v>10.68676493531202</v>
+      </c>
+      <c r="X323">
+        <v>10.65</v>
+      </c>
       <c r="Y323" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27607,6 +28372,23 @@
       <c r="M324">
         <v>57.5</v>
       </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U324">
+        <v>6</v>
+      </c>
+      <c r="V324">
+        <v>0.6872128995433791</v>
+      </c>
+      <c r="W324">
+        <v>6.687212899543379</v>
+      </c>
+      <c r="X324">
+        <v>6.65</v>
+      </c>
       <c r="Y324" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27656,6 +28438,23 @@
       <c r="M325">
         <v>43</v>
       </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U325">
+        <v>3</v>
+      </c>
+      <c r="V325">
+        <v>0.6872128995433791</v>
+      </c>
+      <c r="W325">
+        <v>3.687212899543379</v>
+      </c>
+      <c r="X325">
+        <v>3.65</v>
+      </c>
       <c r="Y325" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27705,6 +28504,23 @@
       <c r="M326">
         <v>46.5</v>
       </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U326">
+        <v>7</v>
+      </c>
+      <c r="V326">
+        <v>0.6872128995433791</v>
+      </c>
+      <c r="W326">
+        <v>7.687212899543379</v>
+      </c>
+      <c r="X326">
+        <v>7.65</v>
+      </c>
       <c r="Y326" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27754,6 +28570,23 @@
       <c r="M327">
         <v>62</v>
       </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U327">
+        <v>6</v>
+      </c>
+      <c r="V327">
+        <v>0.6872128995433791</v>
+      </c>
+      <c r="W327">
+        <v>6.687212899543379</v>
+      </c>
+      <c r="X327">
+        <v>6.65</v>
+      </c>
       <c r="Y327" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27803,6 +28636,23 @@
       <c r="M328">
         <v>53.5</v>
       </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U328">
+        <v>10</v>
+      </c>
+      <c r="V328">
+        <v>0.6872128995433791</v>
+      </c>
+      <c r="W328">
+        <v>10.68721289954338</v>
+      </c>
+      <c r="X328">
+        <v>10.65</v>
+      </c>
       <c r="Y328" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27852,6 +28702,23 @@
       <c r="M329">
         <v>67.5</v>
       </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U329">
+        <v>6</v>
+      </c>
+      <c r="V329">
+        <v>0.6872128995433791</v>
+      </c>
+      <c r="W329">
+        <v>6.687212899543379</v>
+      </c>
+      <c r="X329">
+        <v>6.65</v>
+      </c>
       <c r="Y329" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27901,6 +28768,23 @@
       <c r="M330">
         <v>56.5</v>
       </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U330">
+        <v>9</v>
+      </c>
+      <c r="V330">
+        <v>0.6875439814814815</v>
+      </c>
+      <c r="W330">
+        <v>9.687543981481481</v>
+      </c>
+      <c r="X330">
+        <v>9.65</v>
+      </c>
       <c r="Y330" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27950,6 +28834,23 @@
       <c r="M331">
         <v>50</v>
       </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U331">
+        <v>6</v>
+      </c>
+      <c r="V331">
+        <v>0.6875439814814815</v>
+      </c>
+      <c r="W331">
+        <v>6.687543981481482</v>
+      </c>
+      <c r="X331">
+        <v>6.65</v>
+      </c>
       <c r="Y331" t="inlineStr">
         <is>
           <t>202304</t>
@@ -27999,6 +28900,23 @@
       <c r="M332">
         <v>41</v>
       </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U332">
+        <v>3</v>
+      </c>
+      <c r="V332">
+        <v>0.6879730783866058</v>
+      </c>
+      <c r="W332">
+        <v>3.687973078386606</v>
+      </c>
+      <c r="X332">
+        <v>3.65</v>
+      </c>
       <c r="Y332" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28048,6 +28966,23 @@
       <c r="M333">
         <v>44.5</v>
       </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U333">
+        <v>5</v>
+      </c>
+      <c r="V333">
+        <v>0.6882599568746829</v>
+      </c>
+      <c r="W333">
+        <v>5.688259956874683</v>
+      </c>
+      <c r="X333">
+        <v>5.65</v>
+      </c>
       <c r="Y333" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28097,6 +29032,23 @@
       <c r="M334">
         <v>48</v>
       </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U334">
+        <v>6</v>
+      </c>
+      <c r="V334">
+        <v>0.6882599568746829</v>
+      </c>
+      <c r="W334">
+        <v>6.688259956874683</v>
+      </c>
+      <c r="X334">
+        <v>6.65</v>
+      </c>
       <c r="Y334" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28146,6 +29098,23 @@
       <c r="M335">
         <v>40.5</v>
       </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U335">
+        <v>5</v>
+      </c>
+      <c r="V335">
+        <v>0.6885680809233892</v>
+      </c>
+      <c r="W335">
+        <v>5.688568080923389</v>
+      </c>
+      <c r="X335">
+        <v>5.65</v>
+      </c>
       <c r="Y335" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28195,6 +29164,23 @@
       <c r="M336">
         <v>48.5</v>
       </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U336">
+        <v>3</v>
+      </c>
+      <c r="V336">
+        <v>0.6885680809233892</v>
+      </c>
+      <c r="W336">
+        <v>3.688568080923389</v>
+      </c>
+      <c r="X336">
+        <v>3.65</v>
+      </c>
       <c r="Y336" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28244,6 +29230,23 @@
       <c r="M337">
         <v>42.5</v>
       </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U337">
+        <v>5</v>
+      </c>
+      <c r="V337">
+        <v>0.689181570268899</v>
+      </c>
+      <c r="W337">
+        <v>5.689181570268899</v>
+      </c>
+      <c r="X337">
+        <v>5.65</v>
+      </c>
       <c r="Y337" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28293,6 +29296,23 @@
       <c r="M338">
         <v>51</v>
       </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U338">
+        <v>8</v>
+      </c>
+      <c r="V338">
+        <v>0.689181570268899</v>
+      </c>
+      <c r="W338">
+        <v>8.689181570268898</v>
+      </c>
+      <c r="X338">
+        <v>8.65</v>
+      </c>
       <c r="Y338" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28342,6 +29362,23 @@
       <c r="M339">
         <v>49.5</v>
       </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U339">
+        <v>6</v>
+      </c>
+      <c r="V339">
+        <v>0.689181570268899</v>
+      </c>
+      <c r="W339">
+        <v>6.689181570268899</v>
+      </c>
+      <c r="X339">
+        <v>6.65</v>
+      </c>
       <c r="Y339" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28391,6 +29428,23 @@
       <c r="M340">
         <v>50</v>
       </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U340">
+        <v>10</v>
+      </c>
+      <c r="V340">
+        <v>0.6928527080162353</v>
+      </c>
+      <c r="W340">
+        <v>10.69285270801624</v>
+      </c>
+      <c r="X340">
+        <v>10.65</v>
+      </c>
       <c r="Y340" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28440,6 +29494,23 @@
       <c r="M341">
         <v>43</v>
       </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U341">
+        <v>3</v>
+      </c>
+      <c r="V341">
+        <v>0.6943014649923896</v>
+      </c>
+      <c r="W341">
+        <v>3.69430146499239</v>
+      </c>
+      <c r="X341">
+        <v>3.65</v>
+      </c>
       <c r="Y341" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28489,6 +29560,23 @@
       <c r="M342">
         <v>51.5</v>
       </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U342">
+        <v>6</v>
+      </c>
+      <c r="V342">
+        <v>0.6945930048198884</v>
+      </c>
+      <c r="W342">
+        <v>6.694593004819889</v>
+      </c>
+      <c r="X342">
+        <v>6.65</v>
+      </c>
       <c r="Y342" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28538,6 +29626,23 @@
       <c r="M343">
         <v>44.5</v>
       </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U343">
+        <v>10</v>
+      </c>
+      <c r="V343">
+        <v>0.6945930048198884</v>
+      </c>
+      <c r="W343">
+        <v>10.69459300481989</v>
+      </c>
+      <c r="X343">
+        <v>10.65</v>
+      </c>
       <c r="Y343" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28587,6 +29692,23 @@
       <c r="M344">
         <v>60.5</v>
       </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U344">
+        <v>7</v>
+      </c>
+      <c r="V344">
+        <v>0.6945930048198884</v>
+      </c>
+      <c r="W344">
+        <v>7.694593004819889</v>
+      </c>
+      <c r="X344">
+        <v>7.65</v>
+      </c>
       <c r="Y344" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28636,6 +29758,23 @@
       <c r="M345">
         <v>46.5</v>
       </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U345">
+        <v>7</v>
+      </c>
+      <c r="V345">
+        <v>0.6945930048198884</v>
+      </c>
+      <c r="W345">
+        <v>7.694593004819889</v>
+      </c>
+      <c r="X345">
+        <v>7.65</v>
+      </c>
       <c r="Y345" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28685,6 +29824,23 @@
       <c r="M346">
         <v>56.5</v>
       </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U346">
+        <v>10</v>
+      </c>
+      <c r="V346">
+        <v>0.6945930048198884</v>
+      </c>
+      <c r="W346">
+        <v>10.69459300481989</v>
+      </c>
+      <c r="X346">
+        <v>10.65</v>
+      </c>
       <c r="Y346" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28734,6 +29890,23 @@
       <c r="M347">
         <v>44</v>
       </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U347">
+        <v>3</v>
+      </c>
+      <c r="V347">
+        <v>0.6948350139523084</v>
+      </c>
+      <c r="W347">
+        <v>3.694835013952309</v>
+      </c>
+      <c r="X347">
+        <v>3.65</v>
+      </c>
       <c r="Y347" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28783,6 +29956,23 @@
       <c r="M348">
         <v>46.5</v>
       </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U348">
+        <v>3</v>
+      </c>
+      <c r="V348">
+        <v>0.6948350139523084</v>
+      </c>
+      <c r="W348">
+        <v>3.694835013952309</v>
+      </c>
+      <c r="X348">
+        <v>3.65</v>
+      </c>
       <c r="Y348" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28832,6 +30022,23 @@
       <c r="M349">
         <v>56</v>
       </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U349">
+        <v>10</v>
+      </c>
+      <c r="V349">
+        <v>0.6948350139523084</v>
+      </c>
+      <c r="W349">
+        <v>10.69483501395231</v>
+      </c>
+      <c r="X349">
+        <v>10.65</v>
+      </c>
       <c r="Y349" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28881,6 +30088,23 @@
       <c r="M350">
         <v>54</v>
       </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U350">
+        <v>10</v>
+      </c>
+      <c r="V350">
+        <v>0.6948350139523084</v>
+      </c>
+      <c r="W350">
+        <v>10.69483501395231</v>
+      </c>
+      <c r="X350">
+        <v>10.65</v>
+      </c>
       <c r="Y350" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28930,6 +30154,14 @@
       <c r="M351">
         <v>62</v>
       </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V351">
+        <v>0.6948350139523084</v>
+      </c>
       <c r="Y351" t="inlineStr">
         <is>
           <t>202304</t>
@@ -28979,6 +30211,23 @@
       <c r="M352">
         <v>54</v>
       </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U352">
+        <v>4</v>
+      </c>
+      <c r="V352">
+        <v>0.6951301369863014</v>
+      </c>
+      <c r="W352">
+        <v>4.695130136986301</v>
+      </c>
+      <c r="X352">
+        <v>4.65</v>
+      </c>
       <c r="Y352" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29028,6 +30277,23 @@
       <c r="M353">
         <v>56.5</v>
       </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U353">
+        <v>6</v>
+      </c>
+      <c r="V353">
+        <v>0.6951301369863014</v>
+      </c>
+      <c r="W353">
+        <v>6.695130136986301</v>
+      </c>
+      <c r="X353">
+        <v>6.65</v>
+      </c>
       <c r="Y353" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29077,6 +30343,23 @@
       <c r="M354">
         <v>56</v>
       </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U354">
+        <v>3</v>
+      </c>
+      <c r="V354">
+        <v>0.6955229261796042</v>
+      </c>
+      <c r="W354">
+        <v>3.695522926179604</v>
+      </c>
+      <c r="X354">
+        <v>3.65</v>
+      </c>
       <c r="Y354" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29126,6 +30409,23 @@
       <c r="M355">
         <v>54.5</v>
       </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U355">
+        <v>3</v>
+      </c>
+      <c r="V355">
+        <v>0.6955229261796042</v>
+      </c>
+      <c r="W355">
+        <v>3.695522926179604</v>
+      </c>
+      <c r="X355">
+        <v>3.65</v>
+      </c>
       <c r="Y355" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29175,6 +30475,23 @@
       <c r="M356">
         <v>50</v>
       </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U356">
+        <v>5</v>
+      </c>
+      <c r="V356">
+        <v>0.6955229261796042</v>
+      </c>
+      <c r="W356">
+        <v>5.695522926179605</v>
+      </c>
+      <c r="X356">
+        <v>5.65</v>
+      </c>
       <c r="Y356" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29224,6 +30541,23 @@
       <c r="M357">
         <v>43</v>
       </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U357">
+        <v>3</v>
+      </c>
+      <c r="V357">
+        <v>0.6955229261796042</v>
+      </c>
+      <c r="W357">
+        <v>3.695522926179604</v>
+      </c>
+      <c r="X357">
+        <v>3.65</v>
+      </c>
       <c r="Y357" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29273,6 +30607,23 @@
       <c r="M358">
         <v>53.5</v>
       </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U358">
+        <v>10</v>
+      </c>
+      <c r="V358">
+        <v>0.6958042554540842</v>
+      </c>
+      <c r="W358">
+        <v>10.69580425545408</v>
+      </c>
+      <c r="X358">
+        <v>10.65</v>
+      </c>
       <c r="Y358" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29322,6 +30673,23 @@
       <c r="M359">
         <v>48.5</v>
       </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U359">
+        <v>10</v>
+      </c>
+      <c r="V359">
+        <v>0.6958042554540842</v>
+      </c>
+      <c r="W359">
+        <v>10.69580425545408</v>
+      </c>
+      <c r="X359">
+        <v>10.65</v>
+      </c>
       <c r="Y359" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29371,6 +30739,23 @@
       <c r="M360">
         <v>44.5</v>
       </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U360">
+        <v>10</v>
+      </c>
+      <c r="V360">
+        <v>0.6958042554540842</v>
+      </c>
+      <c r="W360">
+        <v>10.69580425545408</v>
+      </c>
+      <c r="X360">
+        <v>10.65</v>
+      </c>
       <c r="Y360" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29420,6 +30805,23 @@
       <c r="M361">
         <v>59</v>
       </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U361">
+        <v>11</v>
+      </c>
+      <c r="V361">
+        <v>0.6958042554540842</v>
+      </c>
+      <c r="W361">
+        <v>11.69580425545408</v>
+      </c>
+      <c r="X361">
+        <v>11.65</v>
+      </c>
       <c r="Y361" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29469,6 +30871,23 @@
       <c r="M362">
         <v>56</v>
       </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U362">
+        <v>3</v>
+      </c>
+      <c r="V362">
+        <v>0.7006029934043633</v>
+      </c>
+      <c r="W362">
+        <v>3.700602993404363</v>
+      </c>
+      <c r="X362">
+        <v>3.65</v>
+      </c>
       <c r="Y362" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29518,6 +30937,23 @@
       <c r="M363">
         <v>47</v>
       </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U363">
+        <v>5</v>
+      </c>
+      <c r="V363">
+        <v>0.7006029934043633</v>
+      </c>
+      <c r="W363">
+        <v>5.700602993404363</v>
+      </c>
+      <c r="X363">
+        <v>5.65</v>
+      </c>
       <c r="Y363" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29567,6 +31003,23 @@
       <c r="M364">
         <v>54</v>
       </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U364">
+        <v>4</v>
+      </c>
+      <c r="V364">
+        <v>0.7006029934043633</v>
+      </c>
+      <c r="W364">
+        <v>4.700602993404363</v>
+      </c>
+      <c r="X364">
+        <v>4.65</v>
+      </c>
       <c r="Y364" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29616,6 +31069,23 @@
       <c r="M365">
         <v>43</v>
       </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U365">
+        <v>3</v>
+      </c>
+      <c r="V365">
+        <v>0.7006029934043633</v>
+      </c>
+      <c r="W365">
+        <v>3.700602993404363</v>
+      </c>
+      <c r="X365">
+        <v>3.65</v>
+      </c>
       <c r="Y365" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29665,6 +31135,23 @@
       <c r="M366">
         <v>60.5</v>
       </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U366">
+        <v>10</v>
+      </c>
+      <c r="V366">
+        <v>0.7006029934043633</v>
+      </c>
+      <c r="W366">
+        <v>10.70060299340436</v>
+      </c>
+      <c r="X366">
+        <v>10.65</v>
+      </c>
       <c r="Y366" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29714,6 +31201,23 @@
       <c r="M367">
         <v>60.5</v>
       </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U367">
+        <v>11</v>
+      </c>
+      <c r="V367">
+        <v>0.7021319444444444</v>
+      </c>
+      <c r="W367">
+        <v>11.70213194444444</v>
+      </c>
+      <c r="X367">
+        <v>11.65</v>
+      </c>
       <c r="Y367" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29763,6 +31267,23 @@
       <c r="M368">
         <v>54.5</v>
       </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U368">
+        <v>10</v>
+      </c>
+      <c r="V368">
+        <v>0.7025599315068493</v>
+      </c>
+      <c r="W368">
+        <v>10.70255993150685</v>
+      </c>
+      <c r="X368">
+        <v>10.65</v>
+      </c>
       <c r="Y368" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29812,6 +31333,23 @@
       <c r="M369">
         <v>70.5</v>
       </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U369">
+        <v>9</v>
+      </c>
+      <c r="V369">
+        <v>0.7029584601725013</v>
+      </c>
+      <c r="W369">
+        <v>9.702958460172502</v>
+      </c>
+      <c r="X369">
+        <v>9.65</v>
+      </c>
       <c r="Y369" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29861,6 +31399,23 @@
       <c r="M370">
         <v>54</v>
       </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U370">
+        <v>3</v>
+      </c>
+      <c r="V370">
+        <v>0.7029584601725013</v>
+      </c>
+      <c r="W370">
+        <v>3.702958460172501</v>
+      </c>
+      <c r="X370">
+        <v>3.65</v>
+      </c>
       <c r="Y370" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29910,6 +31465,23 @@
       <c r="M371">
         <v>48</v>
       </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U371">
+        <v>3</v>
+      </c>
+      <c r="V371">
+        <v>0.7029584601725013</v>
+      </c>
+      <c r="W371">
+        <v>3.702958460172501</v>
+      </c>
+      <c r="X371">
+        <v>3.65</v>
+      </c>
       <c r="Y371" t="inlineStr">
         <is>
           <t>202304</t>
@@ -29959,6 +31531,23 @@
       <c r="M372">
         <v>40.5</v>
       </c>
+      <c r="P372" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U372">
+        <v>2</v>
+      </c>
+      <c r="V372">
+        <v>0.7029584601725013</v>
+      </c>
+      <c r="W372">
+        <v>2.702958460172501</v>
+      </c>
+      <c r="X372">
+        <v>2.65</v>
+      </c>
       <c r="Y372" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30008,6 +31597,23 @@
       <c r="M373">
         <v>43</v>
       </c>
+      <c r="P373" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U373">
+        <v>2</v>
+      </c>
+      <c r="V373">
+        <v>0.7077262493658042</v>
+      </c>
+      <c r="W373">
+        <v>2.707726249365804</v>
+      </c>
+      <c r="X373">
+        <v>2.65</v>
+      </c>
       <c r="Y373" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30057,6 +31663,23 @@
       <c r="M374">
         <v>47</v>
       </c>
+      <c r="P374" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U374">
+        <v>4</v>
+      </c>
+      <c r="V374">
+        <v>0.7077262493658042</v>
+      </c>
+      <c r="W374">
+        <v>4.707726249365805</v>
+      </c>
+      <c r="X374">
+        <v>4.65</v>
+      </c>
       <c r="Y374" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30106,6 +31729,23 @@
       <c r="M375">
         <v>63.5</v>
       </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U375">
+        <v>10</v>
+      </c>
+      <c r="V375">
+        <v>0.7077262493658042</v>
+      </c>
+      <c r="W375">
+        <v>10.7077262493658</v>
+      </c>
+      <c r="X375">
+        <v>10.65</v>
+      </c>
       <c r="Y375" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30155,6 +31795,23 @@
       <c r="M376">
         <v>53</v>
       </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U376">
+        <v>2</v>
+      </c>
+      <c r="V376">
+        <v>0.7080579337899543</v>
+      </c>
+      <c r="W376">
+        <v>2.708057933789954</v>
+      </c>
+      <c r="X376">
+        <v>2.65</v>
+      </c>
       <c r="Y376" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30204,6 +31861,23 @@
       <c r="M377">
         <v>57.5</v>
       </c>
+      <c r="P377" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U377">
+        <v>6</v>
+      </c>
+      <c r="V377">
+        <v>0.7080579337899543</v>
+      </c>
+      <c r="W377">
+        <v>6.708057933789954</v>
+      </c>
+      <c r="X377">
+        <v>6.65</v>
+      </c>
       <c r="Y377" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30253,6 +31927,23 @@
       <c r="M378">
         <v>41</v>
       </c>
+      <c r="P378" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U378">
+        <v>2</v>
+      </c>
+      <c r="V378">
+        <v>0.7080579337899543</v>
+      </c>
+      <c r="W378">
+        <v>2.708057933789954</v>
+      </c>
+      <c r="X378">
+        <v>2.65</v>
+      </c>
       <c r="Y378" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30302,6 +31993,23 @@
       <c r="M379">
         <v>49</v>
       </c>
+      <c r="P379" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U379">
+        <v>3</v>
+      </c>
+      <c r="V379">
+        <v>0.7080579337899543</v>
+      </c>
+      <c r="W379">
+        <v>3.708057933789954</v>
+      </c>
+      <c r="X379">
+        <v>3.65</v>
+      </c>
       <c r="Y379" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30351,6 +32059,23 @@
       <c r="M380">
         <v>61</v>
       </c>
+      <c r="P380" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U380">
+        <v>5</v>
+      </c>
+      <c r="V380">
+        <v>0.7080579337899543</v>
+      </c>
+      <c r="W380">
+        <v>5.708057933789954</v>
+      </c>
+      <c r="X380">
+        <v>5.65</v>
+      </c>
       <c r="Y380" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30400,6 +32125,23 @@
       <c r="M381">
         <v>59.5</v>
       </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U381">
+        <v>3</v>
+      </c>
+      <c r="V381">
+        <v>0.7084249746321664</v>
+      </c>
+      <c r="W381">
+        <v>3.708424974632166</v>
+      </c>
+      <c r="X381">
+        <v>3.65</v>
+      </c>
       <c r="Y381" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30449,6 +32191,23 @@
       <c r="M382">
         <v>47</v>
       </c>
+      <c r="P382" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U382">
+        <v>10</v>
+      </c>
+      <c r="V382">
+        <v>0.7086848680872654</v>
+      </c>
+      <c r="W382">
+        <v>10.70868486808727</v>
+      </c>
+      <c r="X382">
+        <v>10.65</v>
+      </c>
       <c r="Y382" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30498,6 +32257,23 @@
       <c r="M383">
         <v>47.5</v>
       </c>
+      <c r="P383" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U383">
+        <v>3</v>
+      </c>
+      <c r="V383">
+        <v>0.7095924974632166</v>
+      </c>
+      <c r="W383">
+        <v>3.709592497463217</v>
+      </c>
+      <c r="X383">
+        <v>3.65</v>
+      </c>
       <c r="Y383" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30547,6 +32323,23 @@
       <c r="M384">
         <v>41.5</v>
       </c>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U384">
+        <v>2</v>
+      </c>
+      <c r="V384">
+        <v>0.7098407534246576</v>
+      </c>
+      <c r="W384">
+        <v>2.709840753424658</v>
+      </c>
+      <c r="X384">
+        <v>2.65</v>
+      </c>
       <c r="Y384" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30596,6 +32389,23 @@
       <c r="M385">
         <v>46</v>
       </c>
+      <c r="P385" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U385">
+        <v>3</v>
+      </c>
+      <c r="V385">
+        <v>0.7098407534246576</v>
+      </c>
+      <c r="W385">
+        <v>3.709840753424658</v>
+      </c>
+      <c r="X385">
+        <v>3.65</v>
+      </c>
       <c r="Y385" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30645,6 +32455,23 @@
       <c r="M386">
         <v>54.5</v>
       </c>
+      <c r="P386" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U386">
+        <v>10</v>
+      </c>
+      <c r="V386">
+        <v>0.7101381912734653</v>
+      </c>
+      <c r="W386">
+        <v>10.71013819127347</v>
+      </c>
+      <c r="X386">
+        <v>10.65</v>
+      </c>
       <c r="Y386" t="inlineStr">
         <is>
           <t>202304</t>
@@ -30722,9 +32549,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U387">
+        <v>3</v>
+      </c>
+      <c r="V387">
+        <v>0.1144495814307458</v>
+      </c>
+      <c r="W387">
+        <v>3.114449581430746</v>
+      </c>
+      <c r="X387">
+        <v>3.2</v>
+      </c>
       <c r="AA387" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB387" t="inlineStr">
+        <is>
+          <t>Mae-646</t>
         </is>
       </c>
     </row>
@@ -30784,9 +32628,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U388">
+        <v>4</v>
+      </c>
+      <c r="V388">
+        <v>0.1149376585489599</v>
+      </c>
+      <c r="W388">
+        <v>4.11493765854896</v>
+      </c>
+      <c r="X388">
+        <v>4.2</v>
+      </c>
       <c r="AA388" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB388" t="inlineStr">
+        <is>
+          <t>Mae-648</t>
         </is>
       </c>
     </row>
@@ -30846,9 +32707,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U389">
+        <v>4</v>
+      </c>
+      <c r="V389">
+        <v>0.1149376585489599</v>
+      </c>
+      <c r="W389">
+        <v>4.11493765854896</v>
+      </c>
+      <c r="X389">
+        <v>4.2</v>
+      </c>
       <c r="AA389" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB389" t="inlineStr">
+        <is>
+          <t>Mae-647</t>
         </is>
       </c>
     </row>
@@ -30908,9 +32786,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U390">
+        <v>4</v>
+      </c>
+      <c r="V390">
+        <v>0.1153577815829528</v>
+      </c>
+      <c r="W390">
+        <v>4.115357781582953</v>
+      </c>
+      <c r="X390">
+        <v>4.2</v>
+      </c>
       <c r="AA390" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB390" t="inlineStr">
+        <is>
+          <t>Mae-650</t>
         </is>
       </c>
     </row>
@@ -30970,9 +32865,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U391">
+        <v>3</v>
+      </c>
+      <c r="V391">
+        <v>0.1153577815829528</v>
+      </c>
+      <c r="W391">
+        <v>3.115357781582953</v>
+      </c>
+      <c r="X391">
+        <v>3.2</v>
+      </c>
       <c r="AA391" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB391" t="inlineStr">
+        <is>
+          <t>Mae-649</t>
         </is>
       </c>
     </row>
@@ -31032,9 +32944,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U392">
+        <v>4</v>
+      </c>
+      <c r="V392">
+        <v>0.1153577815829528</v>
+      </c>
+      <c r="W392">
+        <v>4.115357781582953</v>
+      </c>
+      <c r="X392">
+        <v>4.2</v>
+      </c>
       <c r="AA392" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB392" t="inlineStr">
+        <is>
+          <t>Mae-652</t>
         </is>
       </c>
     </row>
@@ -31094,9 +33023,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U393">
+        <v>4</v>
+      </c>
+      <c r="V393">
+        <v>0.1153577815829528</v>
+      </c>
+      <c r="W393">
+        <v>4.115357781582953</v>
+      </c>
+      <c r="X393">
+        <v>4.2</v>
+      </c>
       <c r="AA393" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB393" t="inlineStr">
+        <is>
+          <t>Mae-651</t>
         </is>
       </c>
     </row>
@@ -31156,9 +33102,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U394">
+        <v>4</v>
+      </c>
+      <c r="V394">
+        <v>0.1187152143581938</v>
+      </c>
+      <c r="W394">
+        <v>4.118715214358194</v>
+      </c>
+      <c r="X394">
+        <v>4.2</v>
+      </c>
       <c r="AA394" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB394" t="inlineStr">
+        <is>
+          <t>Mae-653</t>
         </is>
       </c>
     </row>
@@ -31218,9 +33181,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U395">
+        <v>9</v>
+      </c>
+      <c r="V395">
+        <v>0.1198850837138508</v>
+      </c>
+      <c r="W395">
+        <v>9.11988508371385</v>
+      </c>
+      <c r="X395">
+        <v>9.199999999999999</v>
+      </c>
       <c r="AA395" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB395" t="inlineStr">
+        <is>
+          <t>Mae-654</t>
         </is>
       </c>
     </row>
@@ -31280,9 +33260,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U396">
+        <v>8</v>
+      </c>
+      <c r="V396">
+        <v>0.1209438419583967</v>
+      </c>
+      <c r="W396">
+        <v>8.120943841958397</v>
+      </c>
+      <c r="X396">
+        <v>8.199999999999999</v>
+      </c>
       <c r="AA396" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB396" t="inlineStr">
+        <is>
+          <t>Mae-655</t>
         </is>
       </c>
     </row>
@@ -31342,9 +33339,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U397">
+        <v>4</v>
+      </c>
+      <c r="V397">
+        <v>0.1213786149162861</v>
+      </c>
+      <c r="W397">
+        <v>4.121378614916286</v>
+      </c>
+      <c r="X397">
+        <v>4.2</v>
+      </c>
       <c r="AA397" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB397" t="inlineStr">
+        <is>
+          <t>Mae-656</t>
         </is>
       </c>
     </row>
@@ -31404,9 +33418,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U398">
+        <v>3</v>
+      </c>
+      <c r="V398">
+        <v>0.1216986618467783</v>
+      </c>
+      <c r="W398">
+        <v>3.121698661846778</v>
+      </c>
+      <c r="X398">
+        <v>3.2</v>
+      </c>
       <c r="AA398" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB398" t="inlineStr">
+        <is>
+          <t>Mae-658</t>
         </is>
       </c>
     </row>
@@ -31466,9 +33497,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U399">
+        <v>11</v>
+      </c>
+      <c r="V399">
+        <v>0.1216986618467783</v>
+      </c>
+      <c r="W399">
+        <v>11.12169866184678</v>
+      </c>
+      <c r="X399">
+        <v>11.2</v>
+      </c>
       <c r="AA399" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB399" t="inlineStr">
+        <is>
+          <t>Mae-659</t>
         </is>
       </c>
     </row>
@@ -31528,9 +33576,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U400">
+        <v>4</v>
+      </c>
+      <c r="V400">
+        <v>0.1216986618467783</v>
+      </c>
+      <c r="W400">
+        <v>4.121698661846779</v>
+      </c>
+      <c r="X400">
+        <v>4.2</v>
+      </c>
       <c r="AA400" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB400" t="inlineStr">
+        <is>
+          <t>Mae-657</t>
         </is>
       </c>
     </row>
@@ -31590,9 +33655,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U401">
+        <v>11</v>
+      </c>
+      <c r="V401">
+        <v>0.1224266869609335</v>
+      </c>
+      <c r="W401">
+        <v>11.12242668696093</v>
+      </c>
+      <c r="X401">
+        <v>11.2</v>
+      </c>
       <c r="AA401" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB401" t="inlineStr">
+        <is>
+          <t>Mae-662</t>
         </is>
       </c>
     </row>
@@ -31652,9 +33734,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U402">
+        <v>4</v>
+      </c>
+      <c r="V402">
+        <v>0.1224266869609335</v>
+      </c>
+      <c r="W402">
+        <v>4.122426686960933</v>
+      </c>
+      <c r="X402">
+        <v>4.2</v>
+      </c>
       <c r="AA402" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB402" t="inlineStr">
+        <is>
+          <t>Mae-661</t>
         </is>
       </c>
     </row>
@@ -31714,9 +33813,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U403">
+        <v>11</v>
+      </c>
+      <c r="V403">
+        <v>0.1224266869609335</v>
+      </c>
+      <c r="W403">
+        <v>11.12242668696093</v>
+      </c>
+      <c r="X403">
+        <v>11.2</v>
+      </c>
       <c r="AA403" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB403" t="inlineStr">
+        <is>
+          <t>Mae-660</t>
         </is>
       </c>
     </row>
@@ -31776,9 +33892,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U404">
+        <v>4</v>
+      </c>
+      <c r="V404">
+        <v>0.1228765537798072</v>
+      </c>
+      <c r="W404">
+        <v>4.122876553779808</v>
+      </c>
+      <c r="X404">
+        <v>4.2</v>
+      </c>
       <c r="AA404" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB404" t="inlineStr">
+        <is>
+          <t>Mae-663</t>
         </is>
       </c>
     </row>
@@ -31838,9 +33971,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U405">
+        <v>7</v>
+      </c>
+      <c r="V405">
+        <v>0.1228765537798072</v>
+      </c>
+      <c r="W405">
+        <v>7.122876553779808</v>
+      </c>
+      <c r="X405">
+        <v>7.2</v>
+      </c>
       <c r="AA405" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB405" t="inlineStr">
+        <is>
+          <t>Mae-664</t>
         </is>
       </c>
     </row>
@@ -31900,9 +34050,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U406">
+        <v>5</v>
+      </c>
+      <c r="V406">
+        <v>0.1230753107559614</v>
+      </c>
+      <c r="W406">
+        <v>5.123075310755961</v>
+      </c>
+      <c r="X406">
+        <v>5.2</v>
+      </c>
       <c r="AA406" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB406" t="inlineStr">
+        <is>
+          <t>Mae-665</t>
         </is>
       </c>
     </row>
@@ -31962,9 +34129,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U407">
+        <v>5</v>
+      </c>
+      <c r="V407">
+        <v>0.1230753107559614</v>
+      </c>
+      <c r="W407">
+        <v>5.123075310755961</v>
+      </c>
+      <c r="X407">
+        <v>5.2</v>
+      </c>
       <c r="AA407" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB407" t="inlineStr">
+        <is>
+          <t>Mae-666</t>
         </is>
       </c>
     </row>
@@ -32024,9 +34208,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U408">
+        <v>11</v>
+      </c>
+      <c r="V408">
+        <v>0.1230753107559614</v>
+      </c>
+      <c r="W408">
+        <v>11.12307531075596</v>
+      </c>
+      <c r="X408">
+        <v>11.2</v>
+      </c>
       <c r="AA408" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB408" t="inlineStr">
+        <is>
+          <t>Mae-668</t>
         </is>
       </c>
     </row>
@@ -32086,9 +34287,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U409">
+        <v>4</v>
+      </c>
+      <c r="V409">
+        <v>0.1230753107559614</v>
+      </c>
+      <c r="W409">
+        <v>4.123075310755961</v>
+      </c>
+      <c r="X409">
+        <v>4.2</v>
+      </c>
       <c r="AA409" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB409" t="inlineStr">
+        <is>
+          <t>Mae-667</t>
         </is>
       </c>
     </row>
@@ -32148,9 +34366,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U410">
+        <v>3</v>
+      </c>
+      <c r="V410">
+        <v>0.1235520674784374</v>
+      </c>
+      <c r="W410">
+        <v>3.123552067478437</v>
+      </c>
+      <c r="X410">
+        <v>3.2</v>
+      </c>
       <c r="AA410" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB410" t="inlineStr">
+        <is>
+          <t>Mae-669</t>
         </is>
       </c>
     </row>
@@ -32210,9 +34445,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U411">
+        <v>8</v>
+      </c>
+      <c r="V411">
+        <v>0.1235520674784374</v>
+      </c>
+      <c r="W411">
+        <v>8.123552067478437</v>
+      </c>
+      <c r="X411">
+        <v>8.199999999999999</v>
+      </c>
       <c r="AA411" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB411" t="inlineStr">
+        <is>
+          <t>Mae-670</t>
         </is>
       </c>
     </row>
@@ -32272,9 +34524,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U412">
+        <v>4</v>
+      </c>
+      <c r="V412">
+        <v>0.1238118340943683</v>
+      </c>
+      <c r="W412">
+        <v>4.123811834094369</v>
+      </c>
+      <c r="X412">
+        <v>4.2</v>
+      </c>
       <c r="AA412" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB412" t="inlineStr">
+        <is>
+          <t>Mae-671</t>
         </is>
       </c>
     </row>
@@ -32334,9 +34603,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U413">
+        <v>11</v>
+      </c>
+      <c r="V413">
+        <v>0.1243566717402334</v>
+      </c>
+      <c r="W413">
+        <v>11.12435667174023</v>
+      </c>
+      <c r="X413">
+        <v>11.2</v>
+      </c>
       <c r="AA413" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB413" t="inlineStr">
+        <is>
+          <t>Mae-672</t>
         </is>
       </c>
     </row>
@@ -32396,9 +34682,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U414">
+        <v>3</v>
+      </c>
+      <c r="V414">
+        <v>0.125007959157788</v>
+      </c>
+      <c r="W414">
+        <v>3.125007959157788</v>
+      </c>
+      <c r="X414">
+        <v>3.2</v>
+      </c>
       <c r="AA414" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB414" t="inlineStr">
+        <is>
+          <t>Mae-673</t>
         </is>
       </c>
     </row>
@@ -32458,9 +34761,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U415">
+        <v>5</v>
+      </c>
+      <c r="V415">
+        <v>0.1275724885844749</v>
+      </c>
+      <c r="W415">
+        <v>5.127572488584475</v>
+      </c>
+      <c r="X415">
+        <v>5.2</v>
+      </c>
       <c r="AA415" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB415" t="inlineStr">
+        <is>
+          <t>Mae-674</t>
         </is>
       </c>
     </row>
@@ -32520,9 +34840,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U416">
+        <v>4</v>
+      </c>
+      <c r="V416">
+        <v>0.1275724885844749</v>
+      </c>
+      <c r="W416">
+        <v>4.127572488584475</v>
+      </c>
+      <c r="X416">
+        <v>4.2</v>
+      </c>
       <c r="AA416" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB416" t="inlineStr">
+        <is>
+          <t>Mae-676</t>
         </is>
       </c>
     </row>
@@ -32582,9 +34919,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U417">
+        <v>3</v>
+      </c>
+      <c r="V417">
+        <v>0.1275724885844749</v>
+      </c>
+      <c r="W417">
+        <v>3.127572488584475</v>
+      </c>
+      <c r="X417">
+        <v>3.2</v>
+      </c>
       <c r="AA417" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB417" t="inlineStr">
+        <is>
+          <t>Mae-677</t>
         </is>
       </c>
     </row>
@@ -32644,9 +34998,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U418">
+        <v>4</v>
+      </c>
+      <c r="V418">
+        <v>0.1275724885844749</v>
+      </c>
+      <c r="W418">
+        <v>4.127572488584475</v>
+      </c>
+      <c r="X418">
+        <v>4.2</v>
+      </c>
       <c r="AA418" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB418" t="inlineStr">
+        <is>
+          <t>Mae-675</t>
         </is>
       </c>
     </row>
@@ -32706,9 +35077,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U419">
+        <v>11</v>
+      </c>
+      <c r="V419">
+        <v>0.1279460299340436</v>
+      </c>
+      <c r="W419">
+        <v>11.12794602993404</v>
+      </c>
+      <c r="X419">
+        <v>11.2</v>
+      </c>
       <c r="AA419" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB419" t="inlineStr">
+        <is>
+          <t>Mae-678</t>
         </is>
       </c>
     </row>
@@ -32768,9 +35156,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U420">
+        <v>11</v>
+      </c>
+      <c r="V420">
+        <v>0.1279460299340436</v>
+      </c>
+      <c r="W420">
+        <v>11.12794602993404</v>
+      </c>
+      <c r="X420">
+        <v>11.2</v>
+      </c>
       <c r="AA420" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB420" t="inlineStr">
+        <is>
+          <t>Mae-679</t>
         </is>
       </c>
     </row>
@@ -32830,9 +35235,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U421">
+        <v>7</v>
+      </c>
+      <c r="V421">
+        <v>0.1285432838660578</v>
+      </c>
+      <c r="W421">
+        <v>7.128543283866058</v>
+      </c>
+      <c r="X421">
+        <v>7.2</v>
+      </c>
       <c r="AA421" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB421" t="inlineStr">
+        <is>
+          <t>Mae-680</t>
         </is>
       </c>
     </row>
@@ -32892,9 +35314,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U422">
+        <v>7</v>
+      </c>
+      <c r="V422">
+        <v>0.1288117389649924</v>
+      </c>
+      <c r="W422">
+        <v>7.128811738964992</v>
+      </c>
+      <c r="X422">
+        <v>7.2</v>
+      </c>
       <c r="AA422" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB422" t="inlineStr">
+        <is>
+          <t>Mae-681</t>
         </is>
       </c>
     </row>
@@ -32954,9 +35393,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U423">
+        <v>6</v>
+      </c>
+      <c r="V423">
+        <v>0.1288117389649924</v>
+      </c>
+      <c r="W423">
+        <v>6.128811738964992</v>
+      </c>
+      <c r="X423">
+        <v>6.2</v>
+      </c>
       <c r="AA423" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB423" t="inlineStr">
+        <is>
+          <t>Mae-682</t>
         </is>
       </c>
     </row>
@@ -33016,9 +35472,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U424">
+        <v>11</v>
+      </c>
+      <c r="V424">
+        <v>0.1325321537290715</v>
+      </c>
+      <c r="W424">
+        <v>11.13253215372907</v>
+      </c>
+      <c r="X424">
+        <v>11.2</v>
+      </c>
       <c r="AA424" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB424" t="inlineStr">
+        <is>
+          <t>Mae-683</t>
         </is>
       </c>
     </row>
@@ -33078,9 +35551,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U425">
+        <v>8</v>
+      </c>
+      <c r="V425">
+        <v>0.1328855910705226</v>
+      </c>
+      <c r="W425">
+        <v>8.132885591070522</v>
+      </c>
+      <c r="X425">
+        <v>8.199999999999999</v>
+      </c>
       <c r="AA425" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB425" t="inlineStr">
+        <is>
+          <t>Mae-685</t>
         </is>
       </c>
     </row>
@@ -33140,9 +35630,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U426">
+        <v>4</v>
+      </c>
+      <c r="V426">
+        <v>0.1328855910705226</v>
+      </c>
+      <c r="W426">
+        <v>4.132885591070522</v>
+      </c>
+      <c r="X426">
+        <v>4.2</v>
+      </c>
       <c r="AA426" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB426" t="inlineStr">
+        <is>
+          <t>Mae-684</t>
         </is>
       </c>
     </row>
@@ -33202,9 +35709,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U427">
+        <v>4</v>
+      </c>
+      <c r="V427">
+        <v>0.1573854959411466</v>
+      </c>
+      <c r="W427">
+        <v>4.157385495941146</v>
+      </c>
+      <c r="X427">
+        <v>4.2</v>
+      </c>
       <c r="AA427" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB427" t="inlineStr">
+        <is>
+          <t>Mae-687</t>
         </is>
       </c>
     </row>
@@ -33264,9 +35788,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U428">
+        <v>6</v>
+      </c>
+      <c r="V428">
+        <v>0.1573854959411466</v>
+      </c>
+      <c r="W428">
+        <v>6.157385495941146</v>
+      </c>
+      <c r="X428">
+        <v>6.2</v>
+      </c>
       <c r="AA428" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB428" t="inlineStr">
+        <is>
+          <t>Mae-686</t>
         </is>
       </c>
     </row>
@@ -33326,9 +35867,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U429">
+        <v>4</v>
+      </c>
+      <c r="V429">
+        <v>0.1577387747336377</v>
+      </c>
+      <c r="W429">
+        <v>4.157738774733637</v>
+      </c>
+      <c r="X429">
+        <v>4.2</v>
+      </c>
       <c r="AA429" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB429" t="inlineStr">
+        <is>
+          <t>Mae-690</t>
         </is>
       </c>
     </row>
@@ -33388,9 +35946,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U430">
+        <v>3</v>
+      </c>
+      <c r="V430">
+        <v>0.1577387747336377</v>
+      </c>
+      <c r="W430">
+        <v>3.157738774733638</v>
+      </c>
+      <c r="X430">
+        <v>3.2</v>
+      </c>
       <c r="AA430" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB430" t="inlineStr">
+        <is>
+          <t>Mae-689</t>
         </is>
       </c>
     </row>
@@ -33450,9 +36025,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U431">
+        <v>4</v>
+      </c>
+      <c r="V431">
+        <v>0.1577387747336377</v>
+      </c>
+      <c r="W431">
+        <v>4.157738774733637</v>
+      </c>
+      <c r="X431">
+        <v>4.2</v>
+      </c>
       <c r="AA431" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB431" t="inlineStr">
+        <is>
+          <t>Mae-688</t>
         </is>
       </c>
     </row>
@@ -33512,9 +36104,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U432">
+        <v>4</v>
+      </c>
+      <c r="V432">
+        <v>0.1593160514967022</v>
+      </c>
+      <c r="W432">
+        <v>4.159316051496702</v>
+      </c>
+      <c r="X432">
+        <v>4.2</v>
+      </c>
       <c r="AA432" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB432" t="inlineStr">
+        <is>
+          <t>Mae-691</t>
         </is>
       </c>
     </row>
@@ -33574,9 +36183,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U433">
+        <v>4</v>
+      </c>
+      <c r="V433">
+        <v>0.1593160514967022</v>
+      </c>
+      <c r="W433">
+        <v>4.159316051496702</v>
+      </c>
+      <c r="X433">
+        <v>4.2</v>
+      </c>
       <c r="AA433" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB433" t="inlineStr">
+        <is>
+          <t>Mae-692</t>
         </is>
       </c>
     </row>
@@ -33636,9 +36262,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U434">
+        <v>3</v>
+      </c>
+      <c r="V434">
+        <v>0.1596580098934551</v>
+      </c>
+      <c r="W434">
+        <v>3.159658009893455</v>
+      </c>
+      <c r="X434">
+        <v>3.2</v>
+      </c>
       <c r="AA434" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB434" t="inlineStr">
+        <is>
+          <t>Mae-693</t>
         </is>
       </c>
     </row>
@@ -33698,9 +36341,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U435">
+        <v>4</v>
+      </c>
+      <c r="V435">
+        <v>0.15992183536276</v>
+      </c>
+      <c r="W435">
+        <v>4.15992183536276</v>
+      </c>
+      <c r="X435">
+        <v>4.2</v>
+      </c>
       <c r="AA435" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB435" t="inlineStr">
+        <is>
+          <t>Mae-694</t>
         </is>
       </c>
     </row>
@@ -33760,9 +36420,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U436">
+        <v>4</v>
+      </c>
+      <c r="V436">
+        <v>0.15992183536276</v>
+      </c>
+      <c r="W436">
+        <v>4.15992183536276</v>
+      </c>
+      <c r="X436">
+        <v>4.2</v>
+      </c>
       <c r="AA436" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB436" t="inlineStr">
+        <is>
+          <t>Mae-695</t>
         </is>
       </c>
     </row>
@@ -33822,9 +36499,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U437">
+        <v>3</v>
+      </c>
+      <c r="V437">
+        <v>0.1601441210045662</v>
+      </c>
+      <c r="W437">
+        <v>3.160144121004566</v>
+      </c>
+      <c r="X437">
+        <v>3.2</v>
+      </c>
       <c r="AA437" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB437" t="inlineStr">
+        <is>
+          <t>Mae-697</t>
         </is>
       </c>
     </row>
@@ -33884,9 +36578,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U438">
+        <v>3</v>
+      </c>
+      <c r="V438">
+        <v>0.1601441210045662</v>
+      </c>
+      <c r="W438">
+        <v>3.160144121004566</v>
+      </c>
+      <c r="X438">
+        <v>3.2</v>
+      </c>
       <c r="AA438" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB438" t="inlineStr">
+        <is>
+          <t>Mae-696</t>
         </is>
       </c>
     </row>
@@ -33946,9 +36657,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U439">
+        <v>6</v>
+      </c>
+      <c r="V439">
+        <v>0.1601441210045662</v>
+      </c>
+      <c r="W439">
+        <v>6.160144121004566</v>
+      </c>
+      <c r="X439">
+        <v>6.2</v>
+      </c>
       <c r="AA439" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB439" t="inlineStr">
+        <is>
+          <t>Mae-698</t>
         </is>
       </c>
     </row>
@@ -34008,9 +36736,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U440">
+        <v>3</v>
+      </c>
+      <c r="V440">
+        <v>0.1603776002029427</v>
+      </c>
+      <c r="W440">
+        <v>3.160377600202943</v>
+      </c>
+      <c r="X440">
+        <v>3.2</v>
+      </c>
       <c r="AA440" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB440" t="inlineStr">
+        <is>
+          <t>Mae-699</t>
         </is>
       </c>
     </row>
@@ -34070,9 +36815,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U441">
+        <v>11</v>
+      </c>
+      <c r="V441">
+        <v>0.1603776002029427</v>
+      </c>
+      <c r="W441">
+        <v>11.16037760020294</v>
+      </c>
+      <c r="X441">
+        <v>11.2</v>
+      </c>
       <c r="AA441" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB441" t="inlineStr">
+        <is>
+          <t>Mae-701</t>
         </is>
       </c>
     </row>
@@ -34132,9 +36894,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U442">
+        <v>3</v>
+      </c>
+      <c r="V442">
+        <v>0.1603776002029427</v>
+      </c>
+      <c r="W442">
+        <v>3.160377600202943</v>
+      </c>
+      <c r="X442">
+        <v>3.2</v>
+      </c>
       <c r="AA442" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB442" t="inlineStr">
+        <is>
+          <t>Mae-700</t>
         </is>
       </c>
     </row>
@@ -34194,9 +36973,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U443">
+        <v>4</v>
+      </c>
+      <c r="V443">
+        <v>0.160589802130898</v>
+      </c>
+      <c r="W443">
+        <v>4.160589802130898</v>
+      </c>
+      <c r="X443">
+        <v>4.2</v>
+      </c>
       <c r="AA443" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB443" t="inlineStr">
+        <is>
+          <t>Mae-703</t>
         </is>
       </c>
     </row>
@@ -34256,9 +37052,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U444">
+        <v>3</v>
+      </c>
+      <c r="V444">
+        <v>0.160589802130898</v>
+      </c>
+      <c r="W444">
+        <v>3.160589802130898</v>
+      </c>
+      <c r="X444">
+        <v>3.2</v>
+      </c>
       <c r="AA444" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB444" t="inlineStr">
+        <is>
+          <t>Mae-702</t>
         </is>
       </c>
     </row>
@@ -34318,9 +37131,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U445">
+        <v>3</v>
+      </c>
+      <c r="V445">
+        <v>0.1609481861998985</v>
+      </c>
+      <c r="W445">
+        <v>3.160948186199898</v>
+      </c>
+      <c r="X445">
+        <v>3.2</v>
+      </c>
       <c r="AA445" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB445" t="inlineStr">
+        <is>
+          <t>Mae-706</t>
         </is>
       </c>
     </row>
@@ -34380,9 +37210,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U446">
+        <v>11</v>
+      </c>
+      <c r="V446">
+        <v>0.1609481861998985</v>
+      </c>
+      <c r="W446">
+        <v>11.1609481861999</v>
+      </c>
+      <c r="X446">
+        <v>11.2</v>
+      </c>
       <c r="AA446" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB446" t="inlineStr">
+        <is>
+          <t>Mae-705</t>
         </is>
       </c>
     </row>
@@ -34442,9 +37289,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U447">
+        <v>4</v>
+      </c>
+      <c r="V447">
+        <v>0.1609481861998985</v>
+      </c>
+      <c r="W447">
+        <v>4.160948186199898</v>
+      </c>
+      <c r="X447">
+        <v>4.2</v>
+      </c>
       <c r="AA447" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB447" t="inlineStr">
+        <is>
+          <t>Mae-704</t>
         </is>
       </c>
     </row>
@@ -34504,9 +37368,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U448">
+        <v>3</v>
+      </c>
+      <c r="V448">
+        <v>0.1611869926433283</v>
+      </c>
+      <c r="W448">
+        <v>3.161186992643328</v>
+      </c>
+      <c r="X448">
+        <v>3.2</v>
+      </c>
       <c r="AA448" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB448" t="inlineStr">
+        <is>
+          <t>Mae-709</t>
         </is>
       </c>
     </row>
@@ -34566,9 +37447,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U449">
+        <v>11</v>
+      </c>
+      <c r="V449">
+        <v>0.1611869926433283</v>
+      </c>
+      <c r="W449">
+        <v>11.16118699264333</v>
+      </c>
+      <c r="X449">
+        <v>11.2</v>
+      </c>
       <c r="AA449" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB449" t="inlineStr">
+        <is>
+          <t>Mae-708</t>
         </is>
       </c>
     </row>
@@ -34628,9 +37526,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U450">
+        <v>11</v>
+      </c>
+      <c r="V450">
+        <v>0.1611869926433283</v>
+      </c>
+      <c r="W450">
+        <v>11.16118699264333</v>
+      </c>
+      <c r="X450">
+        <v>11.2</v>
+      </c>
       <c r="AA450" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB450" t="inlineStr">
+        <is>
+          <t>Mae-707</t>
         </is>
       </c>
     </row>
@@ -34690,9 +37605,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U451">
+        <v>4</v>
+      </c>
+      <c r="V451">
+        <v>0.1611869926433283</v>
+      </c>
+      <c r="W451">
+        <v>4.161186992643328</v>
+      </c>
+      <c r="X451">
+        <v>4.2</v>
+      </c>
       <c r="AA451" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB451" t="inlineStr">
+        <is>
+          <t>Mae-710</t>
         </is>
       </c>
     </row>
@@ -34752,9 +37684,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U452">
+        <v>4</v>
+      </c>
+      <c r="V452">
+        <v>0.1614616628614916</v>
+      </c>
+      <c r="W452">
+        <v>4.161461662861492</v>
+      </c>
+      <c r="X452">
+        <v>4.2</v>
+      </c>
       <c r="AA452" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB452" t="inlineStr">
+        <is>
+          <t>Mae-712</t>
         </is>
       </c>
     </row>
@@ -34814,9 +37763,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U453">
+        <v>6</v>
+      </c>
+      <c r="V453">
+        <v>0.1614616628614916</v>
+      </c>
+      <c r="W453">
+        <v>6.161461662861492</v>
+      </c>
+      <c r="X453">
+        <v>6.2</v>
+      </c>
       <c r="AA453" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB453" t="inlineStr">
+        <is>
+          <t>Mae-713</t>
         </is>
       </c>
     </row>
@@ -34876,9 +37842,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U454">
+        <v>3</v>
+      </c>
+      <c r="V454">
+        <v>0.1614616628614916</v>
+      </c>
+      <c r="W454">
+        <v>3.161461662861492</v>
+      </c>
+      <c r="X454">
+        <v>3.2</v>
+      </c>
       <c r="AA454" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB454" t="inlineStr">
+        <is>
+          <t>Mae-714</t>
         </is>
       </c>
     </row>
@@ -34938,9 +37921,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U455">
+        <v>7</v>
+      </c>
+      <c r="V455">
+        <v>0.1614616628614916</v>
+      </c>
+      <c r="W455">
+        <v>7.161461662861492</v>
+      </c>
+      <c r="X455">
+        <v>7.2</v>
+      </c>
       <c r="AA455" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB455" t="inlineStr">
+        <is>
+          <t>Mae-711</t>
         </is>
       </c>
     </row>
@@ -35000,9 +38000,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U456">
+        <v>3</v>
+      </c>
+      <c r="V456">
+        <v>0.1617248858447489</v>
+      </c>
+      <c r="W456">
+        <v>3.161724885844749</v>
+      </c>
+      <c r="X456">
+        <v>3.2</v>
+      </c>
       <c r="AA456" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB456" t="inlineStr">
+        <is>
+          <t>Mae-715</t>
         </is>
       </c>
     </row>
@@ -35062,9 +38079,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U457">
+        <v>3</v>
+      </c>
+      <c r="V457">
+        <v>0.1617248858447489</v>
+      </c>
+      <c r="W457">
+        <v>3.161724885844749</v>
+      </c>
+      <c r="X457">
+        <v>3.2</v>
+      </c>
       <c r="AA457" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB457" t="inlineStr">
+        <is>
+          <t>Mae-717</t>
         </is>
       </c>
     </row>
@@ -35124,9 +38158,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U458">
+        <v>6</v>
+      </c>
+      <c r="V458">
+        <v>0.1617248858447489</v>
+      </c>
+      <c r="W458">
+        <v>6.161724885844749</v>
+      </c>
+      <c r="X458">
+        <v>6.2</v>
+      </c>
       <c r="AA458" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB458" t="inlineStr">
+        <is>
+          <t>Mae-716</t>
         </is>
       </c>
     </row>
@@ -35186,9 +38237,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U459">
+        <v>3</v>
+      </c>
+      <c r="V459">
+        <v>0.1619840182648402</v>
+      </c>
+      <c r="W459">
+        <v>3.16198401826484</v>
+      </c>
+      <c r="X459">
+        <v>3.2</v>
+      </c>
       <c r="AA459" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB459" t="inlineStr">
+        <is>
+          <t>Mae-719</t>
         </is>
       </c>
     </row>
@@ -35248,9 +38316,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U460">
+        <v>3</v>
+      </c>
+      <c r="V460">
+        <v>0.1619840182648402</v>
+      </c>
+      <c r="W460">
+        <v>3.16198401826484</v>
+      </c>
+      <c r="X460">
+        <v>3.2</v>
+      </c>
       <c r="AA460" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB460" t="inlineStr">
+        <is>
+          <t>Mae-718</t>
         </is>
       </c>
     </row>
@@ -35310,9 +38395,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U461">
+        <v>4</v>
+      </c>
+      <c r="V461">
+        <v>0.162357496194825</v>
+      </c>
+      <c r="W461">
+        <v>4.162357496194825</v>
+      </c>
+      <c r="X461">
+        <v>4.2</v>
+      </c>
       <c r="AA461" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB461" t="inlineStr">
+        <is>
+          <t>Mae-720</t>
         </is>
       </c>
     </row>
@@ -35372,9 +38474,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U462">
+        <v>4</v>
+      </c>
+      <c r="V462">
+        <v>0.162357496194825</v>
+      </c>
+      <c r="W462">
+        <v>4.162357496194825</v>
+      </c>
+      <c r="X462">
+        <v>4.2</v>
+      </c>
       <c r="AA462" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB462" t="inlineStr">
+        <is>
+          <t>Mae-721</t>
         </is>
       </c>
     </row>
@@ -35434,9 +38553,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U463">
+        <v>4</v>
+      </c>
+      <c r="V463">
+        <v>0.1636746575342466</v>
+      </c>
+      <c r="W463">
+        <v>4.163674657534247</v>
+      </c>
+      <c r="X463">
+        <v>4.2</v>
+      </c>
       <c r="AA463" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB463" t="inlineStr">
+        <is>
+          <t>Mae-722</t>
         </is>
       </c>
     </row>
@@ -35496,9 +38632,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U464">
+        <v>5</v>
+      </c>
+      <c r="V464">
+        <v>0.1641475139523084</v>
+      </c>
+      <c r="W464">
+        <v>5.164147513952308</v>
+      </c>
+      <c r="X464">
+        <v>5.2</v>
+      </c>
       <c r="AA464" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB464" t="inlineStr">
+        <is>
+          <t>Mae-724</t>
         </is>
       </c>
     </row>
@@ -35558,9 +38711,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U465">
+        <v>3</v>
+      </c>
+      <c r="V465">
+        <v>0.1641475139523084</v>
+      </c>
+      <c r="W465">
+        <v>3.164147513952309</v>
+      </c>
+      <c r="X465">
+        <v>3.2</v>
+      </c>
       <c r="AA465" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB465" t="inlineStr">
+        <is>
+          <t>Mae-723</t>
         </is>
       </c>
     </row>
@@ -35620,9 +38790,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U466">
+        <v>9</v>
+      </c>
+      <c r="V466">
+        <v>0.1645616755454084</v>
+      </c>
+      <c r="W466">
+        <v>9.164561675545409</v>
+      </c>
+      <c r="X466">
+        <v>9.199999999999999</v>
+      </c>
       <c r="AA466" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB466" t="inlineStr">
+        <is>
+          <t>Mae-725</t>
         </is>
       </c>
     </row>
@@ -35682,9 +38869,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U467">
+        <v>3</v>
+      </c>
+      <c r="V467">
+        <v>0.1645616755454084</v>
+      </c>
+      <c r="W467">
+        <v>3.164561675545408</v>
+      </c>
+      <c r="X467">
+        <v>3.2</v>
+      </c>
       <c r="AA467" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB467" t="inlineStr">
+        <is>
+          <t>Mae-726</t>
         </is>
       </c>
     </row>
@@ -35744,9 +38948,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U468">
+        <v>3</v>
+      </c>
+      <c r="V468">
+        <v>0.1654407026889904</v>
+      </c>
+      <c r="W468">
+        <v>3.16544070268899</v>
+      </c>
+      <c r="X468">
+        <v>3.2</v>
+      </c>
       <c r="AA468" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB468" t="inlineStr">
+        <is>
+          <t>Mae-727</t>
         </is>
       </c>
     </row>
@@ -35806,9 +39027,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U469">
+        <v>8</v>
+      </c>
+      <c r="V469">
+        <v>0.1654407026889904</v>
+      </c>
+      <c r="W469">
+        <v>8.16544070268899</v>
+      </c>
+      <c r="X469">
+        <v>8.199999999999999</v>
+      </c>
       <c r="AA469" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB469" t="inlineStr">
+        <is>
+          <t>Mae-729</t>
         </is>
       </c>
     </row>
@@ -35868,9 +39106,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U470">
+        <v>4</v>
+      </c>
+      <c r="V470">
+        <v>0.1654407026889904</v>
+      </c>
+      <c r="W470">
+        <v>4.16544070268899</v>
+      </c>
+      <c r="X470">
+        <v>4.2</v>
+      </c>
       <c r="AA470" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB470" t="inlineStr">
+        <is>
+          <t>Mae-728</t>
         </is>
       </c>
     </row>
@@ -35930,9 +39185,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U471">
+        <v>4</v>
+      </c>
+      <c r="V471">
+        <v>0.1658113901572806</v>
+      </c>
+      <c r="W471">
+        <v>4.16581139015728</v>
+      </c>
+      <c r="X471">
+        <v>4.2</v>
+      </c>
       <c r="AA471" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB471" t="inlineStr">
+        <is>
+          <t>Mae-732</t>
         </is>
       </c>
     </row>
@@ -35992,9 +39264,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U472">
+        <v>3</v>
+      </c>
+      <c r="V472">
+        <v>0.1658113901572806</v>
+      </c>
+      <c r="W472">
+        <v>3.16581139015728</v>
+      </c>
+      <c r="X472">
+        <v>3.2</v>
+      </c>
       <c r="AA472" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB472" t="inlineStr">
+        <is>
+          <t>Mae-733</t>
         </is>
       </c>
     </row>
@@ -36054,9 +39343,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U473">
+        <v>4</v>
+      </c>
+      <c r="V473">
+        <v>0.1658113901572806</v>
+      </c>
+      <c r="W473">
+        <v>4.16581139015728</v>
+      </c>
+      <c r="X473">
+        <v>4.2</v>
+      </c>
       <c r="AA473" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB473" t="inlineStr">
+        <is>
+          <t>Mae-731</t>
         </is>
       </c>
     </row>
@@ -36116,9 +39422,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U474">
+        <v>4</v>
+      </c>
+      <c r="V474">
+        <v>0.1658113901572806</v>
+      </c>
+      <c r="W474">
+        <v>4.16581139015728</v>
+      </c>
+      <c r="X474">
+        <v>4.2</v>
+      </c>
       <c r="AA474" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB474" t="inlineStr">
+        <is>
+          <t>Mae-730</t>
         </is>
       </c>
     </row>
@@ -36178,9 +39501,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U475">
+        <v>5</v>
+      </c>
+      <c r="V475">
+        <v>0.1661271562658549</v>
+      </c>
+      <c r="W475">
+        <v>5.166127156265855</v>
+      </c>
+      <c r="X475">
+        <v>5.2</v>
+      </c>
       <c r="AA475" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB475" t="inlineStr">
+        <is>
+          <t>Mae-734</t>
         </is>
       </c>
     </row>
@@ -36240,9 +39580,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U476">
+        <v>7</v>
+      </c>
+      <c r="V476">
+        <v>0.1661271562658549</v>
+      </c>
+      <c r="W476">
+        <v>7.166127156265855</v>
+      </c>
+      <c r="X476">
+        <v>7.2</v>
+      </c>
       <c r="AA476" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB476" t="inlineStr">
+        <is>
+          <t>Mae-735</t>
         </is>
       </c>
     </row>
@@ -36302,9 +39659,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U477">
+        <v>11</v>
+      </c>
+      <c r="V477">
+        <v>0.1661271562658549</v>
+      </c>
+      <c r="W477">
+        <v>11.16612715626585</v>
+      </c>
+      <c r="X477">
+        <v>11.2</v>
+      </c>
       <c r="AA477" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB477" t="inlineStr">
+        <is>
+          <t>Mae-736</t>
         </is>
       </c>
     </row>
@@ -36364,9 +39738,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U478">
+        <v>4</v>
+      </c>
+      <c r="V478">
+        <v>0.1664518011161847</v>
+      </c>
+      <c r="W478">
+        <v>4.166451801116184</v>
+      </c>
+      <c r="X478">
+        <v>4.2</v>
+      </c>
       <c r="AA478" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB478" t="inlineStr">
+        <is>
+          <t>Mae-737</t>
         </is>
       </c>
     </row>
@@ -36426,9 +39817,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U479">
+        <v>11</v>
+      </c>
+      <c r="V479">
+        <v>0.1664518011161847</v>
+      </c>
+      <c r="W479">
+        <v>11.16645180111619</v>
+      </c>
+      <c r="X479">
+        <v>11.2</v>
+      </c>
       <c r="AA479" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB479" t="inlineStr">
+        <is>
+          <t>Mae-738</t>
         </is>
       </c>
     </row>
@@ -36488,9 +39896,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U480">
+        <v>3</v>
+      </c>
+      <c r="V480">
+        <v>0.1664518011161847</v>
+      </c>
+      <c r="W480">
+        <v>3.166451801116185</v>
+      </c>
+      <c r="X480">
+        <v>3.2</v>
+      </c>
       <c r="AA480" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB480" t="inlineStr">
+        <is>
+          <t>Mae-739</t>
         </is>
       </c>
     </row>
@@ -36550,9 +39975,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U481">
+        <v>11</v>
+      </c>
+      <c r="V481">
+        <v>0.1669134639776763</v>
+      </c>
+      <c r="W481">
+        <v>11.16691346397768</v>
+      </c>
+      <c r="X481">
+        <v>11.2</v>
+      </c>
       <c r="AA481" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB481" t="inlineStr">
+        <is>
+          <t>Mae-740</t>
         </is>
       </c>
     </row>
@@ -36612,9 +40054,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U482">
+        <v>11</v>
+      </c>
+      <c r="V482">
+        <v>0.1669134639776763</v>
+      </c>
+      <c r="W482">
+        <v>11.16691346397768</v>
+      </c>
+      <c r="X482">
+        <v>11.2</v>
+      </c>
       <c r="AA482" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB482" t="inlineStr">
+        <is>
+          <t>Mae-744</t>
         </is>
       </c>
     </row>
@@ -36674,9 +40133,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U483">
+        <v>4</v>
+      </c>
+      <c r="V483">
+        <v>0.1669134639776763</v>
+      </c>
+      <c r="W483">
+        <v>4.166913463977676</v>
+      </c>
+      <c r="X483">
+        <v>4.2</v>
+      </c>
       <c r="AA483" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB483" t="inlineStr">
+        <is>
+          <t>Mae-743</t>
         </is>
       </c>
     </row>
@@ -36736,9 +40212,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U484">
+        <v>11</v>
+      </c>
+      <c r="V484">
+        <v>0.1669134639776763</v>
+      </c>
+      <c r="W484">
+        <v>11.16691346397768</v>
+      </c>
+      <c r="X484">
+        <v>11.2</v>
+      </c>
       <c r="AA484" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB484" t="inlineStr">
+        <is>
+          <t>Mae-742</t>
         </is>
       </c>
     </row>
@@ -36798,9 +40291,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U485">
+        <v>4</v>
+      </c>
+      <c r="V485">
+        <v>0.1669134639776763</v>
+      </c>
+      <c r="W485">
+        <v>4.166913463977676</v>
+      </c>
+      <c r="X485">
+        <v>4.2</v>
+      </c>
       <c r="AA485" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB485" t="inlineStr">
+        <is>
+          <t>Mae-741</t>
         </is>
       </c>
     </row>
@@ -36860,9 +40370,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U486">
+        <v>3</v>
+      </c>
+      <c r="V486">
+        <v>0.1671458967529173</v>
+      </c>
+      <c r="W486">
+        <v>3.167145896752917</v>
+      </c>
+      <c r="X486">
+        <v>3.2</v>
+      </c>
       <c r="AA486" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB486" t="inlineStr">
+        <is>
+          <t>Mae-745</t>
         </is>
       </c>
     </row>
@@ -36922,9 +40449,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U487">
+        <v>4</v>
+      </c>
+      <c r="V487">
+        <v>0.1671458967529173</v>
+      </c>
+      <c r="W487">
+        <v>4.167145896752917</v>
+      </c>
+      <c r="X487">
+        <v>4.2</v>
+      </c>
       <c r="AA487" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB487" t="inlineStr">
+        <is>
+          <t>Mae-746</t>
         </is>
       </c>
     </row>
@@ -36984,9 +40528,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U488">
+        <v>4</v>
+      </c>
+      <c r="V488">
+        <v>0.1671458967529173</v>
+      </c>
+      <c r="W488">
+        <v>4.167145896752917</v>
+      </c>
+      <c r="X488">
+        <v>4.2</v>
+      </c>
       <c r="AA488" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB488" t="inlineStr">
+        <is>
+          <t>Mae-747</t>
         </is>
       </c>
     </row>
@@ -37046,9 +40607,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U489">
+        <v>11</v>
+      </c>
+      <c r="V489">
+        <v>0.1674166666666667</v>
+      </c>
+      <c r="W489">
+        <v>11.16741666666667</v>
+      </c>
+      <c r="X489">
+        <v>11.2</v>
+      </c>
       <c r="AA489" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB489" t="inlineStr">
+        <is>
+          <t>Mae-750</t>
         </is>
       </c>
     </row>
@@ -37108,9 +40686,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U490">
+        <v>11</v>
+      </c>
+      <c r="V490">
+        <v>0.1674166666666667</v>
+      </c>
+      <c r="W490">
+        <v>11.16741666666667</v>
+      </c>
+      <c r="X490">
+        <v>11.2</v>
+      </c>
       <c r="AA490" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB490" t="inlineStr">
+        <is>
+          <t>Mae-749</t>
         </is>
       </c>
     </row>
@@ -37170,9 +40765,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U491">
+        <v>4</v>
+      </c>
+      <c r="V491">
+        <v>0.1674166666666667</v>
+      </c>
+      <c r="W491">
+        <v>4.167416666666667</v>
+      </c>
+      <c r="X491">
+        <v>4.2</v>
+      </c>
       <c r="AA491" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB491" t="inlineStr">
+        <is>
+          <t>Mae-751</t>
         </is>
       </c>
     </row>
@@ -37232,9 +40844,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U492">
+        <v>4</v>
+      </c>
+      <c r="V492">
+        <v>0.1674166666666667</v>
+      </c>
+      <c r="W492">
+        <v>4.167416666666667</v>
+      </c>
+      <c r="X492">
+        <v>4.2</v>
+      </c>
       <c r="AA492" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB492" t="inlineStr">
+        <is>
+          <t>Mae-748</t>
         </is>
       </c>
     </row>
@@ -37294,9 +40923,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U493">
+        <v>11</v>
+      </c>
+      <c r="V493">
+        <v>0.1674166666666667</v>
+      </c>
+      <c r="W493">
+        <v>11.16741666666667</v>
+      </c>
+      <c r="X493">
+        <v>11.2</v>
+      </c>
       <c r="AA493" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB493" t="inlineStr">
+        <is>
+          <t>Mae-752</t>
         </is>
       </c>
     </row>
@@ -37356,9 +41002,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U494">
+        <v>5</v>
+      </c>
+      <c r="V494">
+        <v>0.1677397894469812</v>
+      </c>
+      <c r="W494">
+        <v>5.167739789446982</v>
+      </c>
+      <c r="X494">
+        <v>5.2</v>
+      </c>
       <c r="AA494" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB494" t="inlineStr">
+        <is>
+          <t>Mae-755</t>
         </is>
       </c>
     </row>
@@ -37418,9 +41081,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U495">
+        <v>4</v>
+      </c>
+      <c r="V495">
+        <v>0.1677397894469812</v>
+      </c>
+      <c r="W495">
+        <v>4.167739789446982</v>
+      </c>
+      <c r="X495">
+        <v>4.2</v>
+      </c>
       <c r="AA495" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB495" t="inlineStr">
+        <is>
+          <t>Mae-753</t>
         </is>
       </c>
     </row>
@@ -37480,9 +41160,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U496">
+        <v>3</v>
+      </c>
+      <c r="V496">
+        <v>0.1677397894469812</v>
+      </c>
+      <c r="W496">
+        <v>3.167739789446981</v>
+      </c>
+      <c r="X496">
+        <v>3.2</v>
+      </c>
       <c r="AA496" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB496" t="inlineStr">
+        <is>
+          <t>Mae-754</t>
         </is>
       </c>
     </row>
@@ -37542,9 +41239,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U497">
+        <v>4</v>
+      </c>
+      <c r="V497">
+        <v>0.1680668442415018</v>
+      </c>
+      <c r="W497">
+        <v>4.168066844241502</v>
+      </c>
+      <c r="X497">
+        <v>4.2</v>
+      </c>
       <c r="AA497" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB497" t="inlineStr">
+        <is>
+          <t>Mae-758</t>
         </is>
       </c>
     </row>
@@ -37604,9 +41318,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U498">
+        <v>3</v>
+      </c>
+      <c r="V498">
+        <v>0.1680668442415018</v>
+      </c>
+      <c r="W498">
+        <v>3.168066844241502</v>
+      </c>
+      <c r="X498">
+        <v>3.2</v>
+      </c>
       <c r="AA498" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB498" t="inlineStr">
+        <is>
+          <t>Mae-756</t>
         </is>
       </c>
     </row>
@@ -37666,9 +41397,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U499">
+        <v>4</v>
+      </c>
+      <c r="V499">
+        <v>0.1680668442415018</v>
+      </c>
+      <c r="W499">
+        <v>4.168066844241502</v>
+      </c>
+      <c r="X499">
+        <v>4.2</v>
+      </c>
       <c r="AA499" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB499" t="inlineStr">
+        <is>
+          <t>Mae-757</t>
         </is>
       </c>
     </row>
@@ -37728,9 +41476,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U500">
+        <v>4</v>
+      </c>
+      <c r="V500">
+        <v>0.1683527397260274</v>
+      </c>
+      <c r="W500">
+        <v>4.168352739726028</v>
+      </c>
+      <c r="X500">
+        <v>4.2</v>
+      </c>
       <c r="AA500" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB500" t="inlineStr">
+        <is>
+          <t>Mae-759</t>
         </is>
       </c>
     </row>
@@ -37790,9 +41555,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U501">
+        <v>3</v>
+      </c>
+      <c r="V501">
+        <v>0.1687494292237443</v>
+      </c>
+      <c r="W501">
+        <v>3.168749429223744</v>
+      </c>
+      <c r="X501">
+        <v>3.2</v>
+      </c>
       <c r="AA501" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB501" t="inlineStr">
+        <is>
+          <t>Mae-762</t>
         </is>
       </c>
     </row>
@@ -37852,9 +41634,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U502">
+        <v>6</v>
+      </c>
+      <c r="V502">
+        <v>0.1687494292237443</v>
+      </c>
+      <c r="W502">
+        <v>6.168749429223745</v>
+      </c>
+      <c r="X502">
+        <v>6.2</v>
+      </c>
       <c r="AA502" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB502" t="inlineStr">
+        <is>
+          <t>Mae-761</t>
         </is>
       </c>
     </row>
@@ -37914,9 +41713,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U503">
+        <v>4</v>
+      </c>
+      <c r="V503">
+        <v>0.1687494292237443</v>
+      </c>
+      <c r="W503">
+        <v>4.168749429223745</v>
+      </c>
+      <c r="X503">
+        <v>4.2</v>
+      </c>
       <c r="AA503" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB503" t="inlineStr">
+        <is>
+          <t>Mae-760</t>
         </is>
       </c>
     </row>
@@ -37976,9 +41792,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U504">
+        <v>4</v>
+      </c>
+      <c r="V504">
+        <v>0.1704825596144089</v>
+      </c>
+      <c r="W504">
+        <v>4.170482559614409</v>
+      </c>
+      <c r="X504">
+        <v>4.2</v>
+      </c>
       <c r="AA504" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB504" t="inlineStr">
+        <is>
+          <t>Mae-763</t>
         </is>
       </c>
     </row>
@@ -38038,9 +41871,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U505">
+        <v>3</v>
+      </c>
+      <c r="V505">
+        <v>0.1708023845763572</v>
+      </c>
+      <c r="W505">
+        <v>3.170802384576357</v>
+      </c>
+      <c r="X505">
+        <v>3.2</v>
+      </c>
       <c r="AA505" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB505" t="inlineStr">
+        <is>
+          <t>Mae-765</t>
         </is>
       </c>
     </row>
@@ -38100,9 +41950,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U506">
+        <v>6</v>
+      </c>
+      <c r="V506">
+        <v>0.1708023845763572</v>
+      </c>
+      <c r="W506">
+        <v>6.170802384576358</v>
+      </c>
+      <c r="X506">
+        <v>6.2</v>
+      </c>
       <c r="AA506" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB506" t="inlineStr">
+        <is>
+          <t>Mae-766</t>
         </is>
       </c>
     </row>
@@ -38162,9 +42029,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U507">
+        <v>4</v>
+      </c>
+      <c r="V507">
+        <v>0.1708023845763572</v>
+      </c>
+      <c r="W507">
+        <v>4.170802384576358</v>
+      </c>
+      <c r="X507">
+        <v>4.2</v>
+      </c>
       <c r="AA507" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB507" t="inlineStr">
+        <is>
+          <t>Mae-764</t>
         </is>
       </c>
     </row>
@@ -38224,9 +42108,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U508">
+        <v>11</v>
+      </c>
+      <c r="V508">
+        <v>0.1708023845763572</v>
+      </c>
+      <c r="W508">
+        <v>11.17080238457636</v>
+      </c>
+      <c r="X508">
+        <v>11.2</v>
+      </c>
       <c r="AA508" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB508" t="inlineStr">
+        <is>
+          <t>Mae-767</t>
         </is>
       </c>
     </row>
@@ -38286,9 +42187,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U509">
+        <v>4</v>
+      </c>
+      <c r="V509">
+        <v>0.1710383371385084</v>
+      </c>
+      <c r="W509">
+        <v>4.171038337138508</v>
+      </c>
+      <c r="X509">
+        <v>4.2</v>
+      </c>
       <c r="AA509" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB509" t="inlineStr">
+        <is>
+          <t>Mae-768</t>
         </is>
       </c>
     </row>
@@ -38348,9 +42266,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U510">
+        <v>4</v>
+      </c>
+      <c r="V510">
+        <v>0.1710383371385084</v>
+      </c>
+      <c r="W510">
+        <v>4.171038337138508</v>
+      </c>
+      <c r="X510">
+        <v>4.2</v>
+      </c>
       <c r="AA510" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB510" t="inlineStr">
+        <is>
+          <t>Mae-769</t>
         </is>
       </c>
     </row>
@@ -38410,9 +42345,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U511">
+        <v>8</v>
+      </c>
+      <c r="V511">
+        <v>0.1713132610350076</v>
+      </c>
+      <c r="W511">
+        <v>8.171313261035008</v>
+      </c>
+      <c r="X511">
+        <v>8.199999999999999</v>
+      </c>
       <c r="AA511" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB511" t="inlineStr">
+        <is>
+          <t>Mae-774</t>
         </is>
       </c>
     </row>
@@ -38472,9 +42424,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U512">
+        <v>7</v>
+      </c>
+      <c r="V512">
+        <v>0.1713132610350076</v>
+      </c>
+      <c r="W512">
+        <v>7.171313261035007</v>
+      </c>
+      <c r="X512">
+        <v>7.2</v>
+      </c>
       <c r="AA512" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB512" t="inlineStr">
+        <is>
+          <t>Mae-773</t>
         </is>
       </c>
     </row>
@@ -38534,9 +42503,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U513">
+        <v>5</v>
+      </c>
+      <c r="V513">
+        <v>0.1713132610350076</v>
+      </c>
+      <c r="W513">
+        <v>5.171313261035007</v>
+      </c>
+      <c r="X513">
+        <v>5.2</v>
+      </c>
       <c r="AA513" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB513" t="inlineStr">
+        <is>
+          <t>Mae-772</t>
         </is>
       </c>
     </row>
@@ -38596,9 +42582,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U514">
+        <v>3</v>
+      </c>
+      <c r="V514">
+        <v>0.1713132610350076</v>
+      </c>
+      <c r="W514">
+        <v>3.171313261035007</v>
+      </c>
+      <c r="X514">
+        <v>3.2</v>
+      </c>
       <c r="AA514" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB514" t="inlineStr">
+        <is>
+          <t>Mae-771</t>
         </is>
       </c>
     </row>
@@ -38658,9 +42661,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U515">
+        <v>11</v>
+      </c>
+      <c r="V515">
+        <v>0.1713132610350076</v>
+      </c>
+      <c r="W515">
+        <v>11.17131326103501</v>
+      </c>
+      <c r="X515">
+        <v>11.2</v>
+      </c>
       <c r="AA515" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB515" t="inlineStr">
+        <is>
+          <t>Mae-770</t>
         </is>
       </c>
     </row>
@@ -38720,9 +42740,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U516">
+        <v>3</v>
+      </c>
+      <c r="V516">
+        <v>0.1717146118721461</v>
+      </c>
+      <c r="W516">
+        <v>3.171714611872146</v>
+      </c>
+      <c r="X516">
+        <v>3.2</v>
+      </c>
       <c r="AA516" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB516" t="inlineStr">
+        <is>
+          <t>Mae-775</t>
         </is>
       </c>
     </row>
@@ -38782,9 +42819,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U517">
+        <v>4</v>
+      </c>
+      <c r="V517">
+        <v>0.1729644533231862</v>
+      </c>
+      <c r="W517">
+        <v>4.172964453323186</v>
+      </c>
+      <c r="X517">
+        <v>4.2</v>
+      </c>
       <c r="AA517" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB517" t="inlineStr">
+        <is>
+          <t>Mae-776</t>
         </is>
       </c>
     </row>
@@ -38844,9 +42898,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U518">
+        <v>9</v>
+      </c>
+      <c r="V518">
+        <v>0.1733068556570269</v>
+      </c>
+      <c r="W518">
+        <v>9.173306855657026</v>
+      </c>
+      <c r="X518">
+        <v>9.199999999999999</v>
+      </c>
       <c r="AA518" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB518" t="inlineStr">
+        <is>
+          <t>Mae-777</t>
         </is>
       </c>
     </row>
@@ -38906,9 +42977,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U519">
+        <v>4</v>
+      </c>
+      <c r="V519">
+        <v>0.1733068556570269</v>
+      </c>
+      <c r="W519">
+        <v>4.173306855657027</v>
+      </c>
+      <c r="X519">
+        <v>4.2</v>
+      </c>
       <c r="AA519" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB519" t="inlineStr">
+        <is>
+          <t>Mae-779</t>
         </is>
       </c>
     </row>
@@ -38968,9 +43056,17 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="V520">
+        <v>0.1733068556570269</v>
+      </c>
       <c r="AA520" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB520" t="inlineStr">
+        <is>
+          <t>Mae-778</t>
         </is>
       </c>
     </row>
@@ -39030,9 +43126,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U521">
+        <v>4</v>
+      </c>
+      <c r="V521">
+        <v>0.1736320712836124</v>
+      </c>
+      <c r="W521">
+        <v>4.173632071283612</v>
+      </c>
+      <c r="X521">
+        <v>4.2</v>
+      </c>
       <c r="AA521" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB521" t="inlineStr">
+        <is>
+          <t>Mae-781</t>
         </is>
       </c>
     </row>
@@ -39092,9 +43205,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U522">
+        <v>10</v>
+      </c>
+      <c r="V522">
+        <v>0.1736320712836124</v>
+      </c>
+      <c r="W522">
+        <v>10.17363207128361</v>
+      </c>
+      <c r="X522">
+        <v>10.2</v>
+      </c>
       <c r="AA522" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB522" t="inlineStr">
+        <is>
+          <t>Mae-780</t>
         </is>
       </c>
     </row>
@@ -39154,9 +43284,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U523">
+        <v>11</v>
+      </c>
+      <c r="V523">
+        <v>0.1747591007102993</v>
+      </c>
+      <c r="W523">
+        <v>11.1747591007103</v>
+      </c>
+      <c r="X523">
+        <v>11.2</v>
+      </c>
       <c r="AA523" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB523" t="inlineStr">
+        <is>
+          <t>Mae-782</t>
         </is>
       </c>
     </row>
@@ -39216,9 +43363,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U524">
+        <v>3</v>
+      </c>
+      <c r="V524">
+        <v>0.1747591007102993</v>
+      </c>
+      <c r="W524">
+        <v>3.1747591007103</v>
+      </c>
+      <c r="X524">
+        <v>3.2</v>
+      </c>
       <c r="AA524" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB524" t="inlineStr">
+        <is>
+          <t>Mae-783</t>
         </is>
       </c>
     </row>
@@ -39278,9 +43442,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U525">
+        <v>7</v>
+      </c>
+      <c r="V525">
+        <v>0.1751217021816337</v>
+      </c>
+      <c r="W525">
+        <v>7.175121702181634</v>
+      </c>
+      <c r="X525">
+        <v>7.2</v>
+      </c>
       <c r="AA525" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB525" t="inlineStr">
+        <is>
+          <t>Mae-784</t>
         </is>
       </c>
     </row>
@@ -39340,9 +43521,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U526">
+        <v>4</v>
+      </c>
+      <c r="V526">
+        <v>0.1755354198376459</v>
+      </c>
+      <c r="W526">
+        <v>4.175535419837646</v>
+      </c>
+      <c r="X526">
+        <v>4.2</v>
+      </c>
       <c r="AA526" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB526" t="inlineStr">
+        <is>
+          <t>Mae-785</t>
         </is>
       </c>
     </row>
@@ -39402,9 +43600,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U527">
+        <v>3</v>
+      </c>
+      <c r="V527">
+        <v>0.1755354198376459</v>
+      </c>
+      <c r="W527">
+        <v>3.175535419837646</v>
+      </c>
+      <c r="X527">
+        <v>3.2</v>
+      </c>
       <c r="AA527" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB527" t="inlineStr">
+        <is>
+          <t>Mae-786</t>
         </is>
       </c>
     </row>
@@ -39464,9 +43679,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U528">
+        <v>3</v>
+      </c>
+      <c r="V528">
+        <v>0.1767304033485541</v>
+      </c>
+      <c r="W528">
+        <v>3.176730403348554</v>
+      </c>
+      <c r="X528">
+        <v>3.2</v>
+      </c>
       <c r="AA528" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB528" t="inlineStr">
+        <is>
+          <t>Mae-787</t>
         </is>
       </c>
     </row>
@@ -39526,9 +43758,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U529">
+        <v>9</v>
+      </c>
+      <c r="V529">
+        <v>0.1770079591577879</v>
+      </c>
+      <c r="W529">
+        <v>9.177007959157788</v>
+      </c>
+      <c r="X529">
+        <v>9.199999999999999</v>
+      </c>
       <c r="AA529" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB529" t="inlineStr">
+        <is>
+          <t>Mae-788</t>
         </is>
       </c>
     </row>
@@ -39588,9 +43837,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U530">
+        <v>10</v>
+      </c>
+      <c r="V530">
+        <v>0.1770079591577879</v>
+      </c>
+      <c r="W530">
+        <v>10.17700795915779</v>
+      </c>
+      <c r="X530">
+        <v>10.2</v>
+      </c>
       <c r="AA530" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB530" t="inlineStr">
+        <is>
+          <t>Mae-789</t>
         </is>
       </c>
     </row>
@@ -39650,9 +43916,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U531">
+        <v>6</v>
+      </c>
+      <c r="V531">
+        <v>0.1783511542364282</v>
+      </c>
+      <c r="W531">
+        <v>6.178351154236428</v>
+      </c>
+      <c r="X531">
+        <v>6.2</v>
+      </c>
       <c r="AA531" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB531" t="inlineStr">
+        <is>
+          <t>Mae-791</t>
         </is>
       </c>
     </row>
@@ -39712,9 +43995,26 @@
           <t>Preserve Pectoral Fin Clip</t>
         </is>
       </c>
+      <c r="U532">
+        <v>6</v>
+      </c>
+      <c r="V532">
+        <v>0.1783511542364282</v>
+      </c>
+      <c r="W532">
+        <v>6.178351154236428</v>
+      </c>
+      <c r="X532">
+        <v>6.2</v>
+      </c>
       <c r="AA532" t="inlineStr">
         <is>
           <t>Spring 2024</t>
+        </is>
+      </c>
+      <c r="AB532" t="inlineStr">
+        <is>
+          <t>Mae-790</t>
         </is>
       </c>
     </row>
